--- a/Documentation_TPI/Planning_TPI_Backup.xlsx
+++ b/Documentation_TPI/Planning_TPI_Backup.xlsx
@@ -1,47 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501D6DC8-661E-41F5-B600-0FD6C9D8B0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A215EE9-FD13-4846-A42E-1C3D06740629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning previsionnel" sheetId="11" r:id="rId1"/>
     <sheet name="Planning reel" sheetId="13" r:id="rId2"/>
-    <sheet name="Planning vierge" sheetId="14" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="15" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="15" r:id="rId3"/>
+    <sheet name="Planning vierge" sheetId="14" r:id="rId4"/>
     <sheet name="planing M306" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="avancement_tâche" localSheetId="4">'planing M306'!$C1</definedName>
     <definedName name="avancement_tâche" localSheetId="0">'Planning previsionnel'!$C1</definedName>
     <definedName name="avancement_tâche" localSheetId="1">'Planning reel'!$C1</definedName>
-    <definedName name="avancement_tâche" localSheetId="2">'Planning vierge'!$C1</definedName>
+    <definedName name="avancement_tâche" localSheetId="3">'Planning vierge'!$C1</definedName>
     <definedName name="ce_jour" localSheetId="4">TODAY()</definedName>
     <definedName name="ce_jour" localSheetId="0">TODAY()</definedName>
     <definedName name="ce_jour" localSheetId="1">TODAY()</definedName>
-    <definedName name="ce_jour" localSheetId="2">TODAY()</definedName>
+    <definedName name="ce_jour" localSheetId="3">TODAY()</definedName>
     <definedName name="Début_Projet" localSheetId="4">'planing M306'!$D$3</definedName>
     <definedName name="Début_Projet" localSheetId="1">'Planning reel'!$D$3</definedName>
-    <definedName name="Début_Projet" localSheetId="2">'Planning vierge'!$D$3</definedName>
+    <definedName name="Début_Projet" localSheetId="3">'Planning vierge'!$D$3</definedName>
     <definedName name="Début_Projet">'Planning previsionnel'!$D$3</definedName>
     <definedName name="début_tâche" localSheetId="4">'planing M306'!$D1</definedName>
     <definedName name="début_tâche" localSheetId="0">'Planning previsionnel'!$D1</definedName>
     <definedName name="début_tâche" localSheetId="1">'Planning reel'!$D1</definedName>
-    <definedName name="début_tâche" localSheetId="2">'Planning vierge'!$D1</definedName>
+    <definedName name="début_tâche" localSheetId="3">'Planning vierge'!$D1</definedName>
     <definedName name="fin_tâche" localSheetId="4">'planing M306'!$E1</definedName>
     <definedName name="fin_tâche" localSheetId="0">'Planning previsionnel'!$E1</definedName>
     <definedName name="fin_tâche" localSheetId="1">'Planning reel'!$E1</definedName>
-    <definedName name="fin_tâche" localSheetId="2">'Planning vierge'!$E1</definedName>
+    <definedName name="fin_tâche" localSheetId="3">'Planning vierge'!$E1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'planing M306'!$4:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planning previsionnel'!$4:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Planning reel'!$4:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Planning vierge'!$4:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Planning vierge'!$4:$6</definedName>
     <definedName name="Semaine_Affichage" localSheetId="4">'planing M306'!$D$4</definedName>
     <definedName name="Semaine_Affichage" localSheetId="1">'Planning reel'!$D$4</definedName>
-    <definedName name="Semaine_Affichage" localSheetId="2">'Planning vierge'!$D$4</definedName>
+    <definedName name="Semaine_Affichage" localSheetId="3">'Planning vierge'!$D$4</definedName>
     <definedName name="Semaine_Affichage">'Planning previsionnel'!$D$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="100">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -393,12 +393,18 @@
   <si>
     <t>Documentation (Groupe)</t>
   </si>
+  <si>
+    <t>DraFTeam</t>
+  </si>
+  <si>
+    <t>Gabriel-Henri Martin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -408,6 +414,7 @@
     <numFmt numFmtId="170" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="171" formatCode="d"/>
     <numFmt numFmtId="172" formatCode="[h]:mm"/>
+    <numFmt numFmtId="173" formatCode="[$-100C]dddd\,\ d\.\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1337,7 +1344,7 @@
     <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1598,9 +1605,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1613,6 +1617,21 @@
     <xf numFmtId="168" fontId="8" fillId="0" borderId="24" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="24" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="172" fontId="4" fillId="53" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1623,6 +1642,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="52" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="51" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="48" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="48" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1682,7 +1716,7 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
@@ -1708,6 +1742,111 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DCDB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDBB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DCDB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDBB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DCDB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDBB7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1947,15 +2086,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="totalRow" dxfId="30"/>
-      <tableStyleElement type="firstColumn" dxfId="29"/>
-      <tableStyleElement type="lastColumn" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="47"/>
+      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="totalRow" dxfId="45"/>
+      <tableStyleElement type="firstColumn" dxfId="44"/>
+      <tableStyleElement type="lastColumn" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2026,15 +2165,15 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFCCC0DA"/>
+      <color rgb="FFD8E4BC"/>
+      <color rgb="FFE7B8B7"/>
+      <color rgb="FFB8CCE4"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFF2DCDB"/>
       <color rgb="FF42648A"/>
-      <color rgb="FFD8E4BC"/>
-      <color rgb="FFCCC0DA"/>
-      <color rgb="FFFFCC99"/>
-      <color rgb="FFB8CCE4"/>
       <color rgb="FFFFDBB7"/>
-      <color rgb="FFF2DCDB"/>
       <color rgb="FFDCE6F1"/>
-      <color rgb="FFE7B8B7"/>
       <color rgb="FF215881"/>
     </mruColors>
   </colors>
@@ -2317,9 +2456,9 @@
   </sheetPr>
   <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4656,7 +4795,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C42" s="86">
         <f>SUM(C43:E43)</f>
@@ -5287,30 +5426,30 @@
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="G17:AT37">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="6">
       <formula>LEN(TRIM(G17))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:AT41">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="5">
       <formula>LEN(TRIM(G39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:AT43">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="4">
       <formula>LEN(TRIM(G43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:AT10">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="2">
       <formula>LEN(TRIM(G9))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="19" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="3">
       <formula>LEN(TRIM(G9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:AT15">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="1">
       <formula>LEN(TRIM(G12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5336,11 +5475,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT47"/>
+  <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF12" sqref="AF12:AJ12"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF10" sqref="AF10:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5367,7 +5506,7 @@
     <col min="46" max="46" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5382,7 +5521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5393,7 +5532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -5403,12 +5542,12 @@
       <c r="C3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="95">
+      <c r="D3" s="94">
         <v>44950</v>
       </c>
-      <c r="E3" s="96"/>
-    </row>
-    <row r="4" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="95"/>
+    </row>
+    <row r="4" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -5472,7 +5611,7 @@
       <c r="AS4" s="47"/>
       <c r="AT4" s="47"/>
     </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -5521,7 +5660,7 @@
       <c r="AS5" s="24"/>
       <c r="AT5" s="24"/>
     </row>
-    <row r="6" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -5536,48 +5675,72 @@
       <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="94"/>
-      <c r="AK6" s="92"/>
-      <c r="AL6" s="93"/>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="93"/>
-      <c r="AO6" s="94"/>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="94"/>
-    </row>
-    <row r="7" spans="1:46" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="50">
+        <f>SUM(G8:K43)</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="50">
+        <f t="shared" ref="L6" si="0">SUM(L8:P43)</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="50">
+        <f t="shared" ref="Q6" si="1">SUM(Q8:U43)</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="50">
+        <f t="shared" ref="V6" si="2">SUM(V8:Z43)</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="50">
+        <f t="shared" ref="AA6" si="3">SUM(AA8:AE43)</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="50">
+        <f t="shared" ref="AF6" si="4">SUM(AF8:AJ43)</f>
+        <v>0.41666666666666674</v>
+      </c>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="50">
+        <f t="shared" ref="AK6" si="5">SUM(AK8:AO43)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="50">
+        <f t="shared" ref="AP6" si="6">SUM(AP8:AT43)</f>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="AQ6" s="92"/>
+      <c r="AR6" s="92"/>
+      <c r="AS6" s="92"/>
+      <c r="AT6" s="93"/>
+    </row>
+    <row r="7" spans="1:47" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -5627,7 +5790,7 @@
       <c r="AS7" s="30"/>
       <c r="AT7" s="30"/>
     </row>
-    <row r="8" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -5641,7 +5804,3213 @@
       <c r="D8" s="75"/>
       <c r="E8" s="75"/>
       <c r="F8" s="7" t="str">
-        <f t="shared" ref="F8:F45" si="0">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="F8:F45" si="7">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <v/>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="55"/>
+    </row>
+    <row r="9" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="79">
+        <f>SUM(G9:AT9)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="64">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="68"/>
+      <c r="AM9" s="68"/>
+      <c r="AN9" s="68"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="68"/>
+      <c r="AR9" s="68"/>
+      <c r="AS9" s="68"/>
+      <c r="AT9" s="69"/>
+      <c r="AU9" s="41">
+        <f>SUM(G9:AT9)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="79">
+        <f>SUM(G10:AT10)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="70">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="67"/>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="67"/>
+      <c r="AQ10" s="68"/>
+      <c r="AR10" s="68"/>
+      <c r="AS10" s="68"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="41">
+        <f t="shared" ref="AU10:AU43" si="8">SUM(G10:AT10)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="76">
+        <f>SUM(C12:E15)</f>
+        <v>0.17708333333333331</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="55"/>
+      <c r="AO11" s="55"/>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="41"/>
+    </row>
+    <row r="12" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="77">
+        <f t="shared" ref="C12:C14" si="9">SUM(G12:AT12)</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="41">
+        <f>SUM(G12:AT12)</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="77">
+        <f t="shared" si="9"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G13" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="55"/>
+      <c r="AO13" s="55"/>
+      <c r="AP13" s="55"/>
+      <c r="AQ13" s="55"/>
+      <c r="AR13" s="55"/>
+      <c r="AS13" s="55"/>
+      <c r="AT13" s="55"/>
+      <c r="AU13" s="41">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="77">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G14" s="55">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="55"/>
+      <c r="AR14" s="55"/>
+      <c r="AS14" s="55"/>
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="41">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="77">
+        <f>SUM(G15:AT15)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="54"/>
+      <c r="AU15" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="83">
+        <f>SUM(C17:E37)</f>
+        <v>1.5590277777777779</v>
+      </c>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G16" s="108"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
+      <c r="AE16" s="109"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="109"/>
+      <c r="AH16" s="109"/>
+      <c r="AI16" s="109"/>
+      <c r="AJ16" s="109"/>
+      <c r="AK16" s="108"/>
+      <c r="AL16" s="109"/>
+      <c r="AM16" s="109"/>
+      <c r="AN16" s="109"/>
+      <c r="AO16" s="109"/>
+      <c r="AP16" s="108"/>
+      <c r="AQ16" s="109"/>
+      <c r="AR16" s="109"/>
+      <c r="AS16" s="109"/>
+      <c r="AT16" s="109"/>
+      <c r="AU16" s="41"/>
+    </row>
+    <row r="17" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="78">
+        <f t="shared" ref="C17:C36" si="10">SUM(G17:AT17)</f>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="41">
+        <f t="shared" si="8"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="78">
+        <f t="shared" si="10"/>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="55"/>
+      <c r="AM18" s="55"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
+      <c r="AP18" s="55"/>
+      <c r="AQ18" s="55"/>
+      <c r="AR18" s="55"/>
+      <c r="AS18" s="55"/>
+      <c r="AT18" s="55"/>
+      <c r="AU18" s="41">
+        <f t="shared" si="8"/>
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="78">
+        <f t="shared" si="10"/>
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55">
+        <v>6.25E-2</v>
+      </c>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="55"/>
+      <c r="AP19" s="55"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="55"/>
+      <c r="AS19" s="55"/>
+      <c r="AT19" s="55"/>
+      <c r="AU19" s="41">
+        <f t="shared" si="8"/>
+        <v>7.6388888888888895E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="78">
+        <f t="shared" si="10"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="55"/>
+      <c r="AR20" s="55"/>
+      <c r="AS20" s="55"/>
+      <c r="AT20" s="55"/>
+      <c r="AU20" s="41">
+        <f t="shared" si="8"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="78">
+        <f t="shared" si="10"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="67">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="67"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="68"/>
+      <c r="AO21" s="69"/>
+      <c r="AP21" s="67"/>
+      <c r="AQ21" s="68"/>
+      <c r="AR21" s="68"/>
+      <c r="AS21" s="68"/>
+      <c r="AT21" s="69"/>
+      <c r="AU21" s="41">
+        <f t="shared" si="8"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="78">
+        <f t="shared" si="10"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="105">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="107"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="55"/>
+      <c r="AQ22" s="55"/>
+      <c r="AR22" s="55"/>
+      <c r="AS22" s="55"/>
+      <c r="AT22" s="55"/>
+      <c r="AU22" s="41">
+        <f t="shared" si="8"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="78">
+        <f t="shared" si="10"/>
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="55"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="55"/>
+      <c r="AP23" s="55"/>
+      <c r="AQ23" s="55"/>
+      <c r="AR23" s="55"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="41">
+        <f t="shared" si="8"/>
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="78">
+        <f t="shared" si="10"/>
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="55"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="41">
+        <f t="shared" si="8"/>
+        <v>2.4305555555555556E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="78">
+        <f t="shared" si="10"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="55"/>
+      <c r="AO25" s="55"/>
+      <c r="AP25" s="55"/>
+      <c r="AQ25" s="55"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="55"/>
+      <c r="AU25" s="41">
+        <f t="shared" si="8"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="78">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="55"/>
+      <c r="AN26" s="55"/>
+      <c r="AO26" s="55"/>
+      <c r="AP26" s="55"/>
+      <c r="AQ26" s="55"/>
+      <c r="AR26" s="55"/>
+      <c r="AS26" s="55"/>
+      <c r="AT26" s="55"/>
+      <c r="AU26" s="41">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="78">
+        <f t="shared" si="10"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="55"/>
+      <c r="AM27" s="55"/>
+      <c r="AN27" s="55"/>
+      <c r="AO27" s="55"/>
+      <c r="AP27" s="55"/>
+      <c r="AQ27" s="55"/>
+      <c r="AR27" s="55"/>
+      <c r="AS27" s="55"/>
+      <c r="AT27" s="55"/>
+      <c r="AU27" s="41">
+        <f t="shared" si="8"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="78">
+        <f t="shared" si="10"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="55"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="55"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
+      <c r="AK28" s="55"/>
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="55"/>
+      <c r="AN28" s="55"/>
+      <c r="AO28" s="55"/>
+      <c r="AP28" s="55"/>
+      <c r="AQ28" s="55"/>
+      <c r="AR28" s="55"/>
+      <c r="AS28" s="55"/>
+      <c r="AT28" s="55"/>
+      <c r="AU28" s="41">
+        <f t="shared" si="8"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="78">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="55"/>
+      <c r="AO29" s="55"/>
+      <c r="AP29" s="55"/>
+      <c r="AQ29" s="55"/>
+      <c r="AR29" s="55"/>
+      <c r="AS29" s="55"/>
+      <c r="AT29" s="55"/>
+      <c r="AU29" s="41">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="78">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="55"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="41">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="78">
+        <f t="shared" si="10"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="55"/>
+      <c r="AT31" s="55"/>
+      <c r="AU31" s="41">
+        <f t="shared" si="8"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="78">
+        <f t="shared" si="10"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="55"/>
+      <c r="AR32" s="55"/>
+      <c r="AS32" s="55"/>
+      <c r="AT32" s="55"/>
+      <c r="AU32" s="41">
+        <f t="shared" si="8"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="78">
+        <f t="shared" si="10"/>
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="55"/>
+      <c r="AI33" s="55"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="55"/>
+      <c r="AP33" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AQ33" s="55"/>
+      <c r="AR33" s="55"/>
+      <c r="AS33" s="55"/>
+      <c r="AT33" s="55"/>
+      <c r="AU33" s="41">
+        <f t="shared" si="8"/>
+        <v>0.15277777777777776</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="78">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
+      <c r="AD34" s="55"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="55"/>
+      <c r="AI34" s="55"/>
+      <c r="AJ34" s="55"/>
+      <c r="AK34" s="55">
+        <v>0.125</v>
+      </c>
+      <c r="AL34" s="55"/>
+      <c r="AM34" s="55"/>
+      <c r="AN34" s="55"/>
+      <c r="AO34" s="55"/>
+      <c r="AP34" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AQ34" s="55"/>
+      <c r="AR34" s="55"/>
+      <c r="AS34" s="55"/>
+      <c r="AT34" s="55"/>
+      <c r="AU34" s="41">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="78">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
+      <c r="AA35" s="55"/>
+      <c r="AB35" s="55"/>
+      <c r="AC35" s="55"/>
+      <c r="AD35" s="55"/>
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="55"/>
+      <c r="AG35" s="55"/>
+      <c r="AH35" s="55"/>
+      <c r="AI35" s="55"/>
+      <c r="AJ35" s="55"/>
+      <c r="AK35" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AL35" s="55"/>
+      <c r="AM35" s="55"/>
+      <c r="AN35" s="55"/>
+      <c r="AO35" s="55"/>
+      <c r="AP35" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AQ35" s="55"/>
+      <c r="AR35" s="55"/>
+      <c r="AS35" s="55"/>
+      <c r="AT35" s="55"/>
+      <c r="AU35" s="41">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="78">
+        <f t="shared" si="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="55"/>
+      <c r="AB36" s="55"/>
+      <c r="AC36" s="55"/>
+      <c r="AD36" s="55"/>
+      <c r="AE36" s="55"/>
+      <c r="AF36" s="55"/>
+      <c r="AG36" s="55"/>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="55"/>
+      <c r="AJ36" s="55"/>
+      <c r="AK36" s="55"/>
+      <c r="AL36" s="55"/>
+      <c r="AM36" s="55"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="55"/>
+      <c r="AP36" s="55">
+        <v>0.125</v>
+      </c>
+      <c r="AQ36" s="55"/>
+      <c r="AR36" s="55"/>
+      <c r="AS36" s="55"/>
+      <c r="AT36" s="55"/>
+      <c r="AU36" s="41">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="78">
+        <f>SUM(G37:AT37)</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G37" s="55">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55">
+        <v>3.125E-2</v>
+      </c>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
+      <c r="AA37" s="55">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="AB37" s="55"/>
+      <c r="AC37" s="55"/>
+      <c r="AD37" s="55"/>
+      <c r="AE37" s="55"/>
+      <c r="AF37" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AG37" s="55"/>
+      <c r="AH37" s="55"/>
+      <c r="AI37" s="55"/>
+      <c r="AJ37" s="55"/>
+      <c r="AK37" s="55">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="AL37" s="55"/>
+      <c r="AM37" s="55"/>
+      <c r="AN37" s="55"/>
+      <c r="AO37" s="55"/>
+      <c r="AP37" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AQ37" s="55"/>
+      <c r="AR37" s="55"/>
+      <c r="AS37" s="55"/>
+      <c r="AT37" s="55"/>
+      <c r="AU37" s="41">
+        <f t="shared" si="8"/>
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="89">
+        <f>SUM(C39:E41)</f>
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="73"/>
+      <c r="AC38" s="73"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="73"/>
+      <c r="AF38" s="73"/>
+      <c r="AG38" s="73"/>
+      <c r="AH38" s="73"/>
+      <c r="AI38" s="73"/>
+      <c r="AJ38" s="73"/>
+      <c r="AK38" s="73"/>
+      <c r="AL38" s="73"/>
+      <c r="AM38" s="73"/>
+      <c r="AN38" s="73"/>
+      <c r="AO38" s="73"/>
+      <c r="AP38" s="73"/>
+      <c r="AQ38" s="73"/>
+      <c r="AR38" s="73"/>
+      <c r="AS38" s="73"/>
+      <c r="AT38" s="73"/>
+      <c r="AU38" s="41"/>
+    </row>
+    <row r="39" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="85">
+        <f t="shared" ref="C39:C40" si="11">SUM(G39:AT39)</f>
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="67">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="69"/>
+      <c r="AA39" s="56">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AE39" s="56"/>
+      <c r="AF39" s="56">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="56"/>
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="56">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="AL39" s="56"/>
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="56"/>
+      <c r="AP39" s="56">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="AQ39" s="56"/>
+      <c r="AR39" s="56"/>
+      <c r="AS39" s="56"/>
+      <c r="AT39" s="56"/>
+      <c r="AU39" s="41">
+        <f t="shared" si="8"/>
+        <v>7.6388888888888895E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="85">
+        <f t="shared" si="11"/>
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="67">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="69"/>
+      <c r="AA40" s="55">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="55">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="AG40" s="55"/>
+      <c r="AH40" s="55"/>
+      <c r="AI40" s="55"/>
+      <c r="AJ40" s="55"/>
+      <c r="AK40" s="55">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="AL40" s="55"/>
+      <c r="AM40" s="55"/>
+      <c r="AN40" s="55"/>
+      <c r="AO40" s="55"/>
+      <c r="AP40" s="55">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="AQ40" s="55"/>
+      <c r="AR40" s="55"/>
+      <c r="AS40" s="55"/>
+      <c r="AT40" s="55"/>
+      <c r="AU40" s="41">
+        <f t="shared" si="8"/>
+        <v>7.6388888888888895E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="85">
+        <f>SUM(G41:AT41)</f>
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="W41" s="55"/>
+      <c r="X41" s="55"/>
+      <c r="Y41" s="55"/>
+      <c r="Z41" s="55"/>
+      <c r="AA41" s="55">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="AB41" s="55"/>
+      <c r="AC41" s="55"/>
+      <c r="AD41" s="55"/>
+      <c r="AE41" s="55"/>
+      <c r="AF41" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AG41" s="55"/>
+      <c r="AH41" s="55"/>
+      <c r="AI41" s="55"/>
+      <c r="AJ41" s="55"/>
+      <c r="AK41" s="55">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AL41" s="55"/>
+      <c r="AM41" s="55"/>
+      <c r="AN41" s="55"/>
+      <c r="AO41" s="55"/>
+      <c r="AP41" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AQ41" s="55"/>
+      <c r="AR41" s="55"/>
+      <c r="AS41" s="55"/>
+      <c r="AT41" s="55"/>
+      <c r="AU41" s="41">
+        <f t="shared" si="8"/>
+        <v>0.1736111111111111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="88">
+        <f>SUM(C43:E43)</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="59"/>
+      <c r="AH42" s="59"/>
+      <c r="AI42" s="59"/>
+      <c r="AJ42" s="59"/>
+      <c r="AK42" s="59"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="59"/>
+      <c r="AN42" s="59"/>
+      <c r="AO42" s="59"/>
+      <c r="AP42" s="59"/>
+      <c r="AQ42" s="59"/>
+      <c r="AR42" s="59"/>
+      <c r="AS42" s="59"/>
+      <c r="AT42" s="59"/>
+      <c r="AU42" s="41"/>
+    </row>
+    <row r="43" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="87">
+        <f>SUM(G43:AT43)</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G43" s="67">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="67">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="67">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="69"/>
+      <c r="V43" s="67">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="69"/>
+      <c r="AA43" s="67">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="AB43" s="68"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="69"/>
+      <c r="AF43" s="67">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="AG43" s="68"/>
+      <c r="AH43" s="68"/>
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="69"/>
+      <c r="AK43" s="67">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="AL43" s="68"/>
+      <c r="AM43" s="68"/>
+      <c r="AN43" s="68"/>
+      <c r="AO43" s="69"/>
+      <c r="AP43" s="67">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="AQ43" s="68"/>
+      <c r="AR43" s="68"/>
+      <c r="AS43" s="68"/>
+      <c r="AT43" s="69"/>
+      <c r="AU43" s="41">
+        <f t="shared" si="8"/>
+        <v>0.10416666666666669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="81">
+        <f>SUM(C42,C38,C16,C11,C8)</f>
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55"/>
+      <c r="Y44" s="55"/>
+      <c r="Z44" s="55"/>
+      <c r="AA44" s="55"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="55"/>
+      <c r="AD44" s="55"/>
+      <c r="AE44" s="55"/>
+      <c r="AF44" s="55"/>
+      <c r="AG44" s="55"/>
+      <c r="AH44" s="55"/>
+      <c r="AI44" s="55"/>
+      <c r="AJ44" s="55"/>
+      <c r="AK44" s="55"/>
+      <c r="AL44" s="55"/>
+      <c r="AM44" s="55"/>
+      <c r="AN44" s="55"/>
+      <c r="AO44" s="55"/>
+      <c r="AP44" s="55"/>
+      <c r="AQ44" s="55"/>
+      <c r="AR44" s="55"/>
+      <c r="AS44" s="55"/>
+      <c r="AT44" s="55"/>
+    </row>
+    <row r="45" spans="1:47" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
+      <c r="Z45" s="80"/>
+      <c r="AA45" s="80"/>
+      <c r="AB45" s="80"/>
+      <c r="AC45" s="80"/>
+      <c r="AD45" s="80"/>
+      <c r="AE45" s="80"/>
+      <c r="AF45" s="80"/>
+      <c r="AG45" s="80"/>
+      <c r="AH45" s="80"/>
+      <c r="AI45" s="80"/>
+      <c r="AJ45" s="80"/>
+      <c r="AK45" s="80"/>
+      <c r="AL45" s="80"/>
+      <c r="AM45" s="80"/>
+      <c r="AN45" s="80"/>
+      <c r="AO45" s="80"/>
+      <c r="AP45" s="80"/>
+      <c r="AQ45" s="80"/>
+      <c r="AR45" s="80"/>
+      <c r="AS45" s="80"/>
+      <c r="AT45" s="80"/>
+    </row>
+    <row r="47" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="357">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AK4:AO4"/>
+    <mergeCell ref="AP4:AT4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="AF6:AJ6"/>
+    <mergeCell ref="AK6:AO6"/>
+    <mergeCell ref="AP6:AT6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="AK8:AO8"/>
+    <mergeCell ref="AP8:AT8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="AF9:AJ9"/>
+    <mergeCell ref="AK9:AO9"/>
+    <mergeCell ref="AP9:AT9"/>
+    <mergeCell ref="AF10:AJ10"/>
+    <mergeCell ref="AK10:AO10"/>
+    <mergeCell ref="AP10:AT10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF11:AJ11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AK11:AO11"/>
+    <mergeCell ref="AP11:AT11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AJ12"/>
+    <mergeCell ref="AK12:AO12"/>
+    <mergeCell ref="AP12:AT12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="AA13:AE13"/>
+    <mergeCell ref="AF13:AJ13"/>
+    <mergeCell ref="AK13:AO13"/>
+    <mergeCell ref="AP13:AT13"/>
+    <mergeCell ref="AF14:AJ14"/>
+    <mergeCell ref="AK14:AO14"/>
+    <mergeCell ref="AP14:AT14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="V15:Z15"/>
+    <mergeCell ref="AA15:AE15"/>
+    <mergeCell ref="AF15:AJ15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AK15:AO15"/>
+    <mergeCell ref="AP15:AT15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="V16:Z16"/>
+    <mergeCell ref="AA16:AE16"/>
+    <mergeCell ref="AF16:AJ16"/>
+    <mergeCell ref="AK16:AO16"/>
+    <mergeCell ref="AP16:AT16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AF17:AJ17"/>
+    <mergeCell ref="AK17:AO17"/>
+    <mergeCell ref="AP17:AT17"/>
+    <mergeCell ref="AF18:AJ18"/>
+    <mergeCell ref="AK18:AO18"/>
+    <mergeCell ref="AP18:AT18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="AF19:AJ19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="V18:Z18"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="AK19:AO19"/>
+    <mergeCell ref="AP19:AT19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="AK20:AO20"/>
+    <mergeCell ref="AP20:AT20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="V21:Z21"/>
+    <mergeCell ref="AA21:AE21"/>
+    <mergeCell ref="AF21:AJ21"/>
+    <mergeCell ref="AK21:AO21"/>
+    <mergeCell ref="AP21:AT21"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="AK22:AO22"/>
+    <mergeCell ref="AP22:AT22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="AF23:AJ23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="V23:Z23"/>
+    <mergeCell ref="AK23:AO23"/>
+    <mergeCell ref="AP23:AT23"/>
+    <mergeCell ref="V22:Z22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="V24:Z24"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="AK24:AO24"/>
+    <mergeCell ref="AP24:AT24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="AF25:AJ25"/>
+    <mergeCell ref="AK25:AO25"/>
+    <mergeCell ref="AP25:AT25"/>
+    <mergeCell ref="AF26:AJ26"/>
+    <mergeCell ref="AK26:AO26"/>
+    <mergeCell ref="AP26:AT26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="AA27:AE27"/>
+    <mergeCell ref="AF27:AJ27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="AA26:AE26"/>
+    <mergeCell ref="AK27:AO27"/>
+    <mergeCell ref="AP27:AT27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="V28:Z28"/>
+    <mergeCell ref="AA28:AE28"/>
+    <mergeCell ref="AF28:AJ28"/>
+    <mergeCell ref="AK28:AO28"/>
+    <mergeCell ref="AP28:AT28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="V29:Z29"/>
+    <mergeCell ref="AA29:AE29"/>
+    <mergeCell ref="AF29:AJ29"/>
+    <mergeCell ref="AK29:AO29"/>
+    <mergeCell ref="AP29:AT29"/>
+    <mergeCell ref="AF30:AJ30"/>
+    <mergeCell ref="AK30:AO30"/>
+    <mergeCell ref="AP30:AT30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="V31:Z31"/>
+    <mergeCell ref="AA31:AE31"/>
+    <mergeCell ref="AF31:AJ31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="V30:Z30"/>
+    <mergeCell ref="AA30:AE30"/>
+    <mergeCell ref="AK31:AO31"/>
+    <mergeCell ref="AP31:AT31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="V32:Z32"/>
+    <mergeCell ref="AA32:AE32"/>
+    <mergeCell ref="AF32:AJ32"/>
+    <mergeCell ref="AK32:AO32"/>
+    <mergeCell ref="AP32:AT32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="V33:Z33"/>
+    <mergeCell ref="AA33:AE33"/>
+    <mergeCell ref="AF33:AJ33"/>
+    <mergeCell ref="AK33:AO33"/>
+    <mergeCell ref="AP33:AT33"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="AK34:AO34"/>
+    <mergeCell ref="AP34:AT34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="AA35:AE35"/>
+    <mergeCell ref="AF35:AJ35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="AA34:AE34"/>
+    <mergeCell ref="AK35:AO35"/>
+    <mergeCell ref="AP35:AT35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="AA36:AE36"/>
+    <mergeCell ref="AF36:AJ36"/>
+    <mergeCell ref="AK36:AO36"/>
+    <mergeCell ref="AP36:AT36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="V37:Z37"/>
+    <mergeCell ref="AA37:AE37"/>
+    <mergeCell ref="AF37:AJ37"/>
+    <mergeCell ref="AK37:AO37"/>
+    <mergeCell ref="AP37:AT37"/>
+    <mergeCell ref="AF38:AJ38"/>
+    <mergeCell ref="AK38:AO38"/>
+    <mergeCell ref="AP38:AT38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="V39:Z39"/>
+    <mergeCell ref="AA39:AE39"/>
+    <mergeCell ref="AF39:AJ39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="V38:Z38"/>
+    <mergeCell ref="AA38:AE38"/>
+    <mergeCell ref="AK39:AO39"/>
+    <mergeCell ref="AP39:AT39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="Q40:U40"/>
+    <mergeCell ref="V40:Z40"/>
+    <mergeCell ref="AA40:AE40"/>
+    <mergeCell ref="AF40:AJ40"/>
+    <mergeCell ref="AK40:AO40"/>
+    <mergeCell ref="AP40:AT40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="V41:Z41"/>
+    <mergeCell ref="AA41:AE41"/>
+    <mergeCell ref="AF41:AJ41"/>
+    <mergeCell ref="AK41:AO41"/>
+    <mergeCell ref="AP41:AT41"/>
+    <mergeCell ref="AF42:AJ42"/>
+    <mergeCell ref="AK42:AO42"/>
+    <mergeCell ref="AP42:AT42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="AA43:AE43"/>
+    <mergeCell ref="AF43:AJ43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="AA42:AE42"/>
+    <mergeCell ref="AK43:AO43"/>
+    <mergeCell ref="AP43:AT43"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="V45:Z45"/>
+    <mergeCell ref="AA45:AE45"/>
+    <mergeCell ref="AF45:AJ45"/>
+    <mergeCell ref="AK45:AO45"/>
+    <mergeCell ref="AP45:AT45"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:Z44"/>
+    <mergeCell ref="AA44:AE44"/>
+    <mergeCell ref="AF44:AJ44"/>
+    <mergeCell ref="AK44:AO44"/>
+    <mergeCell ref="AP44:AT44"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G17:AT18 G22:U22 AF19:AT37 G23:AE37 G19:Z19 G20:AE21">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="6">
+      <formula>LEN(TRIM(G17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:AT41">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="5">
+      <formula>LEN(TRIM(G39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:AT43">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="4">
+      <formula>LEN(TRIM(G43))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:AT10">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="2">
+      <formula>LEN(TRIM(G9))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="28" priority="3">
+      <formula>LEN(TRIM(G9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:AT15">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="1">
+      <formula>LEN(TRIM(G12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Semaine d’affichage" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="D4" xr:uid="{4CA52660-AD7C-4613-82FC-087A91937694}">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{9CE43A33-F1B3-4832-87FA-C0792989A0F1}"/>
+    <hyperlink ref="G1" r:id="rId2" xr:uid="{650F2011-AA80-41C1-B5EE-9E2EBAB0A7A3}"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <headerFooter differentFirst="1" scaleWithDoc="0">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="44" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D730BF-FB29-4DF8-BE71-C94F28271DF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387117F4-96AB-4317-8096-9092958D5A89}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BJ47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="15" width="2.5703125" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="17" max="25" width="2.5703125" customWidth="1"/>
+    <col min="26" max="26" width="4.7109375" customWidth="1"/>
+    <col min="27" max="30" width="2.5703125" customWidth="1"/>
+    <col min="31" max="31" width="4.28515625" customWidth="1"/>
+    <col min="32" max="35" width="2.5703125" customWidth="1"/>
+    <col min="36" max="36" width="3.7109375" customWidth="1"/>
+    <col min="37" max="40" width="2.5703125" customWidth="1"/>
+    <col min="41" max="41" width="5" customWidth="1"/>
+    <col min="42" max="45" width="2.5703125" customWidth="1"/>
+    <col min="46" max="46" width="5.7109375" customWidth="1"/>
+    <col min="47" max="56" width="2.7109375" customWidth="1"/>
+    <col min="57" max="61" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="99">
+        <f>G4</f>
+        <v>45043</v>
+      </c>
+      <c r="E3" s="100"/>
+    </row>
+    <row r="4" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="G4" s="46">
+        <v>45043</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="46">
+        <v>45048</v>
+      </c>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="46">
+        <v>45049</v>
+      </c>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="46">
+        <v>45050</v>
+      </c>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="46">
+        <v>45054</v>
+      </c>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="46">
+        <v>45055</v>
+      </c>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="46">
+        <v>45056</v>
+      </c>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="46">
+        <v>45057</v>
+      </c>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="46">
+        <v>45061</v>
+      </c>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="46">
+        <v>45062</v>
+      </c>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="46">
+        <v>45063</v>
+      </c>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="47"/>
+      <c r="BI4" s="47"/>
+    </row>
+    <row r="5" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="24"/>
+      <c r="AW5" s="24"/>
+      <c r="AX5" s="24"/>
+      <c r="AY5" s="24"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="24"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="24"/>
+      <c r="BI5" s="24"/>
+    </row>
+    <row r="6" spans="1:62" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="50">
+        <f>SUM(G8:K43)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="50">
+        <f t="shared" ref="L6" si="0">SUM(L8:P43)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="50">
+        <f t="shared" ref="Q6" si="1">SUM(Q8:U43)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="50">
+        <f t="shared" ref="V6" si="2">SUM(V8:Z43)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="50">
+        <f t="shared" ref="AA6" si="3">SUM(AA8:AE43)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="50">
+        <f t="shared" ref="AF6" si="4">SUM(AF8:AJ43)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="50">
+        <f t="shared" ref="AK6" si="5">SUM(AK8:AO43)</f>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="50">
+        <f t="shared" ref="AP6" si="6">SUM(AP8:AT43)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="92"/>
+      <c r="AR6" s="92"/>
+      <c r="AS6" s="92"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="50">
+        <f t="shared" ref="AU6" si="7">SUM(AU8:AY43)</f>
+        <v>0</v>
+      </c>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="50">
+        <f t="shared" ref="AZ6" si="8">SUM(AZ8:BD43)</f>
+        <v>0</v>
+      </c>
+      <c r="BA6" s="92"/>
+      <c r="BB6" s="92"/>
+      <c r="BC6" s="92"/>
+      <c r="BD6" s="93"/>
+      <c r="BE6" s="50">
+        <f t="shared" ref="BE6" si="9">SUM(BE8:BI43)</f>
+        <v>0</v>
+      </c>
+      <c r="BF6" s="92"/>
+      <c r="BG6" s="92"/>
+      <c r="BH6" s="92"/>
+      <c r="BI6" s="93"/>
+    </row>
+    <row r="7" spans="1:62" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7"/>
+      <c r="F7" t="str">
+        <f>IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <v/>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="30"/>
+      <c r="AY7" s="30"/>
+      <c r="AZ7" s="30"/>
+      <c r="BA7" s="30"/>
+      <c r="BB7" s="30"/>
+      <c r="BC7" s="30"/>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="30"/>
+      <c r="BF7" s="30"/>
+      <c r="BG7" s="30"/>
+      <c r="BH7" s="30"/>
+      <c r="BI7" s="30"/>
+    </row>
+    <row r="8" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="74">
+        <f>SUM(C9:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="7" t="str">
+        <f t="shared" ref="F8:F45" si="10">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="G8" s="60"/>
@@ -5684,15 +9053,26 @@
       <c r="AR8" s="55"/>
       <c r="AS8" s="55"/>
       <c r="AT8" s="55"/>
-    </row>
-    <row r="9" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU8" s="55"/>
+      <c r="AV8" s="55"/>
+      <c r="AW8" s="55"/>
+      <c r="AX8" s="55"/>
+      <c r="AY8" s="55"/>
+      <c r="AZ8" s="55"/>
+      <c r="BA8" s="55"/>
+      <c r="BB8" s="55"/>
+      <c r="BC8" s="55"/>
+      <c r="BD8" s="55"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="69"/>
+    </row>
+    <row r="9" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="79">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
       <c r="F9" s="7"/>
@@ -5736,15 +9116,30 @@
       <c r="AR9" s="68"/>
       <c r="AS9" s="68"/>
       <c r="AT9" s="69"/>
-    </row>
-    <row r="10" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="68"/>
+      <c r="AW9" s="68"/>
+      <c r="AX9" s="68"/>
+      <c r="AY9" s="69"/>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="68"/>
+      <c r="BB9" s="68"/>
+      <c r="BC9" s="68"/>
+      <c r="BD9" s="69"/>
+      <c r="BE9" s="67"/>
+      <c r="BF9" s="68"/>
+      <c r="BG9" s="68"/>
+      <c r="BH9" s="68"/>
+      <c r="BI9" s="69"/>
+      <c r="BJ9" s="41">
+        <f>SUM(G9:BI9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
-      <c r="B10" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="79">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
       <c r="F10" s="7"/>
@@ -5788,8 +9183,27 @@
       <c r="AR10" s="68"/>
       <c r="AS10" s="68"/>
       <c r="AT10" s="69"/>
-    </row>
-    <row r="11" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU10" s="67"/>
+      <c r="AV10" s="68"/>
+      <c r="AW10" s="68"/>
+      <c r="AX10" s="68"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="67"/>
+      <c r="BA10" s="68"/>
+      <c r="BB10" s="68"/>
+      <c r="BC10" s="68"/>
+      <c r="BD10" s="69"/>
+      <c r="BE10" s="67"/>
+      <c r="BF10" s="68"/>
+      <c r="BG10" s="68"/>
+      <c r="BH10" s="68"/>
+      <c r="BI10" s="69"/>
+      <c r="BJ10" s="41">
+        <f t="shared" ref="BJ10:BJ43" si="11">SUM(G10:BI10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -5798,12 +9212,12 @@
       </c>
       <c r="C11" s="76">
         <f>SUM(C12:E15)</f>
-        <v>0.2986111111111111</v>
+        <v>0</v>
       </c>
       <c r="D11" s="76"/>
       <c r="E11" s="76"/>
       <c r="F11" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G11" s="61"/>
@@ -5846,21 +9260,33 @@
       <c r="AR11" s="55"/>
       <c r="AS11" s="55"/>
       <c r="AT11" s="55"/>
-    </row>
-    <row r="12" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU11" s="55"/>
+      <c r="AV11" s="55"/>
+      <c r="AW11" s="55"/>
+      <c r="AX11" s="55"/>
+      <c r="AY11" s="55"/>
+      <c r="AZ11" s="55"/>
+      <c r="BA11" s="55"/>
+      <c r="BB11" s="55"/>
+      <c r="BC11" s="55"/>
+      <c r="BD11" s="55"/>
+      <c r="BE11" s="67"/>
+      <c r="BF11" s="68"/>
+      <c r="BG11" s="68"/>
+      <c r="BH11" s="68"/>
+      <c r="BI11" s="69"/>
+      <c r="BJ11" s="41"/>
+    </row>
+    <row r="12" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="77">
-        <v>6.9444444444444441E-3</v>
-      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
       <c r="F12" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G12" s="56"/>
@@ -5888,11 +9314,11 @@
       <c r="AC12" s="55"/>
       <c r="AD12" s="55"/>
       <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="69"/>
       <c r="AK12" s="55"/>
       <c r="AL12" s="55"/>
       <c r="AM12" s="55"/>
@@ -5903,19 +9329,34 @@
       <c r="AR12" s="55"/>
       <c r="AS12" s="55"/>
       <c r="AT12" s="55"/>
-    </row>
-    <row r="13" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="55"/>
+      <c r="AX12" s="55"/>
+      <c r="AY12" s="55"/>
+      <c r="AZ12" s="55"/>
+      <c r="BA12" s="55"/>
+      <c r="BB12" s="55"/>
+      <c r="BC12" s="55"/>
+      <c r="BD12" s="55"/>
+      <c r="BE12" s="67"/>
+      <c r="BF12" s="68"/>
+      <c r="BG12" s="68"/>
+      <c r="BH12" s="68"/>
+      <c r="BI12" s="69"/>
+      <c r="BJ12" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
-      <c r="B13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="77">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="77"/>
       <c r="E13" s="77"/>
       <c r="F13" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G13" s="55"/>
@@ -5958,19 +9399,34 @@
       <c r="AR13" s="55"/>
       <c r="AS13" s="55"/>
       <c r="AT13" s="55"/>
-    </row>
-    <row r="14" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU13" s="55"/>
+      <c r="AV13" s="55"/>
+      <c r="AW13" s="55"/>
+      <c r="AX13" s="55"/>
+      <c r="AY13" s="55"/>
+      <c r="AZ13" s="55"/>
+      <c r="BA13" s="55"/>
+      <c r="BB13" s="55"/>
+      <c r="BC13" s="55"/>
+      <c r="BD13" s="55"/>
+      <c r="BE13" s="67"/>
+      <c r="BF13" s="68"/>
+      <c r="BG13" s="68"/>
+      <c r="BH13" s="68"/>
+      <c r="BI13" s="69"/>
+      <c r="BJ13" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
-      <c r="B14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="77">
-        <v>0.125</v>
-      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="77"/>
       <c r="E14" s="77"/>
       <c r="F14" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G14" s="55"/>
@@ -6013,19 +9469,34 @@
       <c r="AR14" s="55"/>
       <c r="AS14" s="55"/>
       <c r="AT14" s="55"/>
-    </row>
-    <row r="15" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
+      <c r="BB14" s="55"/>
+      <c r="BC14" s="55"/>
+      <c r="BD14" s="55"/>
+      <c r="BE14" s="67"/>
+      <c r="BF14" s="68"/>
+      <c r="BG14" s="68"/>
+      <c r="BH14" s="68"/>
+      <c r="BI14" s="69"/>
+      <c r="BJ14" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
-      <c r="B15" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="77">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="77"/>
       <c r="E15" s="77"/>
       <c r="F15" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G15" s="54"/>
@@ -6068,8 +9539,27 @@
       <c r="AR15" s="54"/>
       <c r="AS15" s="54"/>
       <c r="AT15" s="54"/>
-    </row>
-    <row r="16" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="54"/>
+      <c r="AW15" s="54"/>
+      <c r="AX15" s="54"/>
+      <c r="AY15" s="54"/>
+      <c r="AZ15" s="54"/>
+      <c r="BA15" s="54"/>
+      <c r="BB15" s="54"/>
+      <c r="BC15" s="54"/>
+      <c r="BD15" s="54"/>
+      <c r="BE15" s="67"/>
+      <c r="BF15" s="68"/>
+      <c r="BG15" s="68"/>
+      <c r="BH15" s="68"/>
+      <c r="BI15" s="69"/>
+      <c r="BJ15" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
@@ -6078,12 +9568,12 @@
       </c>
       <c r="C16" s="83">
         <f>SUM(C17:E33)</f>
-        <v>1.3472222222222221</v>
+        <v>0</v>
       </c>
       <c r="D16" s="83"/>
       <c r="E16" s="83"/>
       <c r="F16" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G16" s="61"/>
@@ -6126,19 +9616,31 @@
       <c r="AR16" s="62"/>
       <c r="AS16" s="62"/>
       <c r="AT16" s="90"/>
-    </row>
-    <row r="17" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU16" s="61"/>
+      <c r="AV16" s="62"/>
+      <c r="AW16" s="62"/>
+      <c r="AX16" s="62"/>
+      <c r="AY16" s="90"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="62"/>
+      <c r="BB16" s="62"/>
+      <c r="BC16" s="62"/>
+      <c r="BD16" s="90"/>
+      <c r="BE16" s="61"/>
+      <c r="BF16" s="62"/>
+      <c r="BG16" s="62"/>
+      <c r="BH16" s="62"/>
+      <c r="BI16" s="90"/>
+      <c r="BJ16" s="41"/>
+    </row>
+    <row r="17" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
-      <c r="B17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="78">
-        <v>6.9444444444444441E-3</v>
-      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="78"/>
       <c r="E17" s="78"/>
       <c r="F17" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G17" s="56"/>
@@ -6181,19 +9683,34 @@
       <c r="AR17" s="56"/>
       <c r="AS17" s="56"/>
       <c r="AT17" s="56"/>
-    </row>
-    <row r="18" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="56"/>
+      <c r="AY17" s="56"/>
+      <c r="AZ17" s="56"/>
+      <c r="BA17" s="56"/>
+      <c r="BB17" s="56"/>
+      <c r="BC17" s="56"/>
+      <c r="BD17" s="56"/>
+      <c r="BE17" s="67"/>
+      <c r="BF17" s="68"/>
+      <c r="BG17" s="68"/>
+      <c r="BH17" s="68"/>
+      <c r="BI17" s="69"/>
+      <c r="BJ17" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
-      <c r="B18" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="78">
-        <v>1.3888888888888888E-2</v>
-      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="78"/>
       <c r="E18" s="78"/>
       <c r="F18" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G18" s="55"/>
@@ -6236,19 +9753,34 @@
       <c r="AR18" s="55"/>
       <c r="AS18" s="55"/>
       <c r="AT18" s="55"/>
-    </row>
-    <row r="19" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU18" s="55"/>
+      <c r="AV18" s="55"/>
+      <c r="AW18" s="55"/>
+      <c r="AX18" s="55"/>
+      <c r="AY18" s="55"/>
+      <c r="AZ18" s="55"/>
+      <c r="BA18" s="55"/>
+      <c r="BB18" s="55"/>
+      <c r="BC18" s="55"/>
+      <c r="BD18" s="55"/>
+      <c r="BE18" s="67"/>
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="68"/>
+      <c r="BH18" s="68"/>
+      <c r="BI18" s="69"/>
+      <c r="BJ18" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
-      <c r="B19" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="78">
-        <v>0.125</v>
-      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
       <c r="F19" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G19" s="55"/>
@@ -6291,19 +9823,34 @@
       <c r="AR19" s="55"/>
       <c r="AS19" s="55"/>
       <c r="AT19" s="55"/>
-    </row>
-    <row r="20" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU19" s="55"/>
+      <c r="AV19" s="55"/>
+      <c r="AW19" s="55"/>
+      <c r="AX19" s="55"/>
+      <c r="AY19" s="55"/>
+      <c r="AZ19" s="55"/>
+      <c r="BA19" s="55"/>
+      <c r="BB19" s="55"/>
+      <c r="BC19" s="55"/>
+      <c r="BD19" s="55"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="69"/>
+      <c r="BJ19" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
-      <c r="B20" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="78">
-        <v>1.3888888888888888E-2</v>
-      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="78"/>
       <c r="E20" s="78"/>
       <c r="F20" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G20" s="55"/>
@@ -6346,15 +9893,30 @@
       <c r="AR20" s="55"/>
       <c r="AS20" s="55"/>
       <c r="AT20" s="55"/>
-    </row>
-    <row r="21" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU20" s="55"/>
+      <c r="AV20" s="55"/>
+      <c r="AW20" s="55"/>
+      <c r="AX20" s="55"/>
+      <c r="AY20" s="55"/>
+      <c r="AZ20" s="55"/>
+      <c r="BA20" s="55"/>
+      <c r="BB20" s="55"/>
+      <c r="BC20" s="55"/>
+      <c r="BD20" s="55"/>
+      <c r="BE20" s="67"/>
+      <c r="BF20" s="68"/>
+      <c r="BG20" s="68"/>
+      <c r="BH20" s="68"/>
+      <c r="BI20" s="69"/>
+      <c r="BJ20" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
-      <c r="B21" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="78">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="78"/>
       <c r="E21" s="78"/>
       <c r="F21" s="7"/>
@@ -6398,19 +9960,34 @@
       <c r="AR21" s="68"/>
       <c r="AS21" s="68"/>
       <c r="AT21" s="69"/>
-    </row>
-    <row r="22" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU21" s="67"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="68"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="67"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="69"/>
+      <c r="BE21" s="67"/>
+      <c r="BF21" s="68"/>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="68"/>
+      <c r="BI21" s="69"/>
+      <c r="BJ21" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
-      <c r="B22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="78">
-        <v>0.125</v>
-      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="78"/>
       <c r="E22" s="78"/>
       <c r="F22" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G22" s="55"/>
@@ -6453,19 +10030,34 @@
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
       <c r="AT22" s="55"/>
-    </row>
-    <row r="23" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU22" s="55"/>
+      <c r="AV22" s="55"/>
+      <c r="AW22" s="55"/>
+      <c r="AX22" s="55"/>
+      <c r="AY22" s="55"/>
+      <c r="AZ22" s="55"/>
+      <c r="BA22" s="55"/>
+      <c r="BB22" s="55"/>
+      <c r="BC22" s="55"/>
+      <c r="BD22" s="55"/>
+      <c r="BE22" s="67"/>
+      <c r="BF22" s="68"/>
+      <c r="BG22" s="68"/>
+      <c r="BH22" s="68"/>
+      <c r="BI22" s="69"/>
+      <c r="BJ22" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
-      <c r="B23" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="78">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="78"/>
       <c r="E23" s="78"/>
       <c r="F23" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G23" s="55"/>
@@ -6508,19 +10100,34 @@
       <c r="AR23" s="55"/>
       <c r="AS23" s="55"/>
       <c r="AT23" s="55"/>
-    </row>
-    <row r="24" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU23" s="55"/>
+      <c r="AV23" s="55"/>
+      <c r="AW23" s="55"/>
+      <c r="AX23" s="55"/>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="55"/>
+      <c r="BA23" s="55"/>
+      <c r="BB23" s="55"/>
+      <c r="BC23" s="55"/>
+      <c r="BD23" s="55"/>
+      <c r="BE23" s="67"/>
+      <c r="BF23" s="68"/>
+      <c r="BG23" s="68"/>
+      <c r="BH23" s="68"/>
+      <c r="BI23" s="69"/>
+      <c r="BJ23" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
-      <c r="B24" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="78">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="78"/>
       <c r="E24" s="78"/>
       <c r="F24" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G24" s="55"/>
@@ -6563,19 +10170,34 @@
       <c r="AR24" s="55"/>
       <c r="AS24" s="55"/>
       <c r="AT24" s="55"/>
-    </row>
-    <row r="25" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU24" s="55"/>
+      <c r="AV24" s="55"/>
+      <c r="AW24" s="55"/>
+      <c r="AX24" s="55"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="55"/>
+      <c r="BA24" s="55"/>
+      <c r="BB24" s="55"/>
+      <c r="BC24" s="55"/>
+      <c r="BD24" s="55"/>
+      <c r="BE24" s="67"/>
+      <c r="BF24" s="68"/>
+      <c r="BG24" s="68"/>
+      <c r="BH24" s="68"/>
+      <c r="BI24" s="69"/>
+      <c r="BJ24" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
-      <c r="B25" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="78">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="78"/>
       <c r="E25" s="78"/>
       <c r="F25" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G25" s="55"/>
@@ -6618,19 +10240,34 @@
       <c r="AR25" s="55"/>
       <c r="AS25" s="55"/>
       <c r="AT25" s="55"/>
-    </row>
-    <row r="26" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU25" s="55"/>
+      <c r="AV25" s="55"/>
+      <c r="AW25" s="55"/>
+      <c r="AX25" s="55"/>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="55"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="55"/>
+      <c r="BC25" s="55"/>
+      <c r="BD25" s="55"/>
+      <c r="BE25" s="67"/>
+      <c r="BF25" s="68"/>
+      <c r="BG25" s="68"/>
+      <c r="BH25" s="68"/>
+      <c r="BI25" s="69"/>
+      <c r="BJ25" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
-      <c r="B26" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="78">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="78"/>
       <c r="E26" s="78"/>
       <c r="F26" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G26" s="55"/>
@@ -6673,19 +10310,34 @@
       <c r="AR26" s="55"/>
       <c r="AS26" s="55"/>
       <c r="AT26" s="55"/>
-    </row>
-    <row r="27" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU26" s="55"/>
+      <c r="AV26" s="55"/>
+      <c r="AW26" s="55"/>
+      <c r="AX26" s="55"/>
+      <c r="AY26" s="55"/>
+      <c r="AZ26" s="55"/>
+      <c r="BA26" s="55"/>
+      <c r="BB26" s="55"/>
+      <c r="BC26" s="55"/>
+      <c r="BD26" s="55"/>
+      <c r="BE26" s="67"/>
+      <c r="BF26" s="68"/>
+      <c r="BG26" s="68"/>
+      <c r="BH26" s="68"/>
+      <c r="BI26" s="69"/>
+      <c r="BJ26" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
-      <c r="B27" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="78">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="78"/>
       <c r="E27" s="78"/>
       <c r="F27" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G27" s="55"/>
@@ -6728,19 +10380,34 @@
       <c r="AR27" s="55"/>
       <c r="AS27" s="55"/>
       <c r="AT27" s="55"/>
-    </row>
-    <row r="28" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU27" s="55"/>
+      <c r="AV27" s="55"/>
+      <c r="AW27" s="55"/>
+      <c r="AX27" s="55"/>
+      <c r="AY27" s="55"/>
+      <c r="AZ27" s="55"/>
+      <c r="BA27" s="55"/>
+      <c r="BB27" s="55"/>
+      <c r="BC27" s="55"/>
+      <c r="BD27" s="55"/>
+      <c r="BE27" s="67"/>
+      <c r="BF27" s="68"/>
+      <c r="BG27" s="68"/>
+      <c r="BH27" s="68"/>
+      <c r="BI27" s="69"/>
+      <c r="BJ27" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
-      <c r="B28" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="78">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="78"/>
       <c r="E28" s="78"/>
       <c r="F28" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G28" s="55"/>
@@ -6783,19 +10450,34 @@
       <c r="AR28" s="55"/>
       <c r="AS28" s="55"/>
       <c r="AT28" s="55"/>
-    </row>
-    <row r="29" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU28" s="55"/>
+      <c r="AV28" s="55"/>
+      <c r="AW28" s="55"/>
+      <c r="AX28" s="55"/>
+      <c r="AY28" s="55"/>
+      <c r="AZ28" s="55"/>
+      <c r="BA28" s="55"/>
+      <c r="BB28" s="55"/>
+      <c r="BC28" s="55"/>
+      <c r="BD28" s="55"/>
+      <c r="BE28" s="67"/>
+      <c r="BF28" s="68"/>
+      <c r="BG28" s="68"/>
+      <c r="BH28" s="68"/>
+      <c r="BI28" s="69"/>
+      <c r="BJ28" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
-      <c r="B29" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="78">
-        <v>0.20833333333333334</v>
-      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="78"/>
       <c r="E29" s="78"/>
       <c r="F29" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G29" s="55"/>
@@ -6838,19 +10520,34 @@
       <c r="AR29" s="55"/>
       <c r="AS29" s="55"/>
       <c r="AT29" s="55"/>
-    </row>
-    <row r="30" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU29" s="55"/>
+      <c r="AV29" s="55"/>
+      <c r="AW29" s="55"/>
+      <c r="AX29" s="55"/>
+      <c r="AY29" s="55"/>
+      <c r="AZ29" s="55"/>
+      <c r="BA29" s="55"/>
+      <c r="BB29" s="55"/>
+      <c r="BC29" s="55"/>
+      <c r="BD29" s="55"/>
+      <c r="BE29" s="67"/>
+      <c r="BF29" s="68"/>
+      <c r="BG29" s="68"/>
+      <c r="BH29" s="68"/>
+      <c r="BI29" s="69"/>
+      <c r="BJ29" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
-      <c r="B30" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="78">
-        <v>0.125</v>
-      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="78"/>
       <c r="E30" s="78"/>
       <c r="F30" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G30" s="55"/>
@@ -6893,19 +10590,34 @@
       <c r="AR30" s="55"/>
       <c r="AS30" s="55"/>
       <c r="AT30" s="55"/>
-    </row>
-    <row r="31" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU30" s="55"/>
+      <c r="AV30" s="55"/>
+      <c r="AW30" s="55"/>
+      <c r="AX30" s="55"/>
+      <c r="AY30" s="55"/>
+      <c r="AZ30" s="55"/>
+      <c r="BA30" s="55"/>
+      <c r="BB30" s="55"/>
+      <c r="BC30" s="55"/>
+      <c r="BD30" s="55"/>
+      <c r="BE30" s="67"/>
+      <c r="BF30" s="68"/>
+      <c r="BG30" s="68"/>
+      <c r="BH30" s="68"/>
+      <c r="BI30" s="69"/>
+      <c r="BJ30" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
-      <c r="B31" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="78">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="78"/>
       <c r="E31" s="78"/>
       <c r="F31" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G31" s="55"/>
@@ -6948,19 +10660,34 @@
       <c r="AR31" s="55"/>
       <c r="AS31" s="55"/>
       <c r="AT31" s="55"/>
-    </row>
-    <row r="32" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU31" s="55"/>
+      <c r="AV31" s="55"/>
+      <c r="AW31" s="55"/>
+      <c r="AX31" s="55"/>
+      <c r="AY31" s="55"/>
+      <c r="AZ31" s="55"/>
+      <c r="BA31" s="55"/>
+      <c r="BB31" s="55"/>
+      <c r="BC31" s="55"/>
+      <c r="BD31" s="55"/>
+      <c r="BE31" s="67"/>
+      <c r="BF31" s="68"/>
+      <c r="BG31" s="68"/>
+      <c r="BH31" s="68"/>
+      <c r="BI31" s="69"/>
+      <c r="BJ31" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
-      <c r="B32" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="78">
-        <v>0.125</v>
-      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="78"/>
       <c r="E32" s="78"/>
       <c r="F32" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G32" s="55"/>
@@ -7003,19 +10730,34 @@
       <c r="AR32" s="55"/>
       <c r="AS32" s="55"/>
       <c r="AT32" s="55"/>
-    </row>
-    <row r="33" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU32" s="55"/>
+      <c r="AV32" s="55"/>
+      <c r="AW32" s="55"/>
+      <c r="AX32" s="55"/>
+      <c r="AY32" s="55"/>
+      <c r="AZ32" s="55"/>
+      <c r="BA32" s="55"/>
+      <c r="BB32" s="55"/>
+      <c r="BC32" s="55"/>
+      <c r="BD32" s="55"/>
+      <c r="BE32" s="67"/>
+      <c r="BF32" s="68"/>
+      <c r="BG32" s="68"/>
+      <c r="BH32" s="68"/>
+      <c r="BI32" s="69"/>
+      <c r="BJ32" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
-      <c r="B33" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="78">
-        <v>0.125</v>
-      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="78"/>
       <c r="E33" s="78"/>
       <c r="F33" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G33" s="55"/>
@@ -7058,19 +10800,34 @@
       <c r="AR33" s="55"/>
       <c r="AS33" s="55"/>
       <c r="AT33" s="55"/>
-    </row>
-    <row r="34" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU33" s="55"/>
+      <c r="AV33" s="55"/>
+      <c r="AW33" s="55"/>
+      <c r="AX33" s="55"/>
+      <c r="AY33" s="55"/>
+      <c r="AZ33" s="55"/>
+      <c r="BA33" s="55"/>
+      <c r="BB33" s="55"/>
+      <c r="BC33" s="55"/>
+      <c r="BD33" s="55"/>
+      <c r="BE33" s="67"/>
+      <c r="BF33" s="68"/>
+      <c r="BG33" s="68"/>
+      <c r="BH33" s="68"/>
+      <c r="BI33" s="69"/>
+      <c r="BJ33" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
-      <c r="B34" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="78">
-        <v>0.16666666666666666</v>
-      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="78"/>
       <c r="E34" s="78"/>
       <c r="F34" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G34" s="55"/>
@@ -7113,19 +10870,34 @@
       <c r="AR34" s="55"/>
       <c r="AS34" s="55"/>
       <c r="AT34" s="55"/>
-    </row>
-    <row r="35" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU34" s="55"/>
+      <c r="AV34" s="55"/>
+      <c r="AW34" s="55"/>
+      <c r="AX34" s="55"/>
+      <c r="AY34" s="55"/>
+      <c r="AZ34" s="55"/>
+      <c r="BA34" s="55"/>
+      <c r="BB34" s="55"/>
+      <c r="BC34" s="55"/>
+      <c r="BD34" s="55"/>
+      <c r="BE34" s="67"/>
+      <c r="BF34" s="68"/>
+      <c r="BG34" s="68"/>
+      <c r="BH34" s="68"/>
+      <c r="BI34" s="69"/>
+      <c r="BJ34" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
-      <c r="B35" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="78">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="78"/>
       <c r="E35" s="78"/>
       <c r="F35" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G35" s="55"/>
@@ -7168,19 +10940,34 @@
       <c r="AR35" s="55"/>
       <c r="AS35" s="55"/>
       <c r="AT35" s="55"/>
-    </row>
-    <row r="36" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU35" s="55"/>
+      <c r="AV35" s="55"/>
+      <c r="AW35" s="55"/>
+      <c r="AX35" s="55"/>
+      <c r="AY35" s="55"/>
+      <c r="AZ35" s="55"/>
+      <c r="BA35" s="55"/>
+      <c r="BB35" s="55"/>
+      <c r="BC35" s="55"/>
+      <c r="BD35" s="55"/>
+      <c r="BE35" s="67"/>
+      <c r="BF35" s="68"/>
+      <c r="BG35" s="68"/>
+      <c r="BH35" s="68"/>
+      <c r="BI35" s="69"/>
+      <c r="BJ35" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
-      <c r="B36" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="78">
-        <v>0.125</v>
-      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="78"/>
       <c r="E36" s="78"/>
       <c r="F36" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G36" s="55"/>
@@ -7223,19 +11010,34 @@
       <c r="AR36" s="55"/>
       <c r="AS36" s="55"/>
       <c r="AT36" s="55"/>
-    </row>
-    <row r="37" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU36" s="55"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="55"/>
+      <c r="AZ36" s="55"/>
+      <c r="BA36" s="55"/>
+      <c r="BB36" s="55"/>
+      <c r="BC36" s="55"/>
+      <c r="BD36" s="55"/>
+      <c r="BE36" s="67"/>
+      <c r="BF36" s="68"/>
+      <c r="BG36" s="68"/>
+      <c r="BH36" s="68"/>
+      <c r="BI36" s="69"/>
+      <c r="BJ36" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
-      <c r="B37" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="78">
-        <v>0.41666666666666669</v>
-      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="78"/>
       <c r="E37" s="78"/>
       <c r="F37" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G37" s="55"/>
@@ -7278,8 +11080,27 @@
       <c r="AR37" s="55"/>
       <c r="AS37" s="55"/>
       <c r="AT37" s="55"/>
-    </row>
-    <row r="38" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU37" s="55"/>
+      <c r="AV37" s="55"/>
+      <c r="AW37" s="55"/>
+      <c r="AX37" s="55"/>
+      <c r="AY37" s="55"/>
+      <c r="AZ37" s="55"/>
+      <c r="BA37" s="55"/>
+      <c r="BB37" s="55"/>
+      <c r="BC37" s="55"/>
+      <c r="BD37" s="55"/>
+      <c r="BE37" s="67"/>
+      <c r="BF37" s="68"/>
+      <c r="BG37" s="68"/>
+      <c r="BH37" s="68"/>
+      <c r="BI37" s="69"/>
+      <c r="BJ37" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>11</v>
       </c>
@@ -7288,12 +11109,12 @@
       </c>
       <c r="C38" s="89">
         <f>SUM(C39:E41)</f>
-        <v>0.54166666666666663</v>
+        <v>0</v>
       </c>
       <c r="D38" s="89"/>
       <c r="E38" s="89"/>
       <c r="F38" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G38" s="55"/>
@@ -7336,19 +11157,31 @@
       <c r="AR38" s="60"/>
       <c r="AS38" s="60"/>
       <c r="AT38" s="60"/>
-    </row>
-    <row r="39" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU38" s="60"/>
+      <c r="AV38" s="60"/>
+      <c r="AW38" s="60"/>
+      <c r="AX38" s="60"/>
+      <c r="AY38" s="60"/>
+      <c r="AZ38" s="60"/>
+      <c r="BA38" s="60"/>
+      <c r="BB38" s="60"/>
+      <c r="BC38" s="60"/>
+      <c r="BD38" s="60"/>
+      <c r="BE38" s="61"/>
+      <c r="BF38" s="62"/>
+      <c r="BG38" s="62"/>
+      <c r="BH38" s="62"/>
+      <c r="BI38" s="90"/>
+      <c r="BJ38" s="41"/>
+    </row>
+    <row r="39" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
-      <c r="B39" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="85">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="85"/>
       <c r="E39" s="85"/>
       <c r="F39" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G39" s="56"/>
@@ -7391,19 +11224,34 @@
       <c r="AR39" s="56"/>
       <c r="AS39" s="56"/>
       <c r="AT39" s="56"/>
-    </row>
-    <row r="40" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU39" s="56"/>
+      <c r="AV39" s="56"/>
+      <c r="AW39" s="56"/>
+      <c r="AX39" s="56"/>
+      <c r="AY39" s="56"/>
+      <c r="AZ39" s="56"/>
+      <c r="BA39" s="56"/>
+      <c r="BB39" s="56"/>
+      <c r="BC39" s="56"/>
+      <c r="BD39" s="56"/>
+      <c r="BE39" s="67"/>
+      <c r="BF39" s="68"/>
+      <c r="BG39" s="68"/>
+      <c r="BH39" s="68"/>
+      <c r="BI39" s="69"/>
+      <c r="BJ39" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
-      <c r="B40" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="85">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="85"/>
       <c r="E40" s="85"/>
       <c r="F40" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G40" s="55"/>
@@ -7446,19 +11294,34 @@
       <c r="AR40" s="55"/>
       <c r="AS40" s="55"/>
       <c r="AT40" s="55"/>
-    </row>
-    <row r="41" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU40" s="55"/>
+      <c r="AV40" s="55"/>
+      <c r="AW40" s="55"/>
+      <c r="AX40" s="55"/>
+      <c r="AY40" s="55"/>
+      <c r="AZ40" s="55"/>
+      <c r="BA40" s="55"/>
+      <c r="BB40" s="55"/>
+      <c r="BC40" s="55"/>
+      <c r="BD40" s="55"/>
+      <c r="BE40" s="67"/>
+      <c r="BF40" s="68"/>
+      <c r="BG40" s="68"/>
+      <c r="BH40" s="68"/>
+      <c r="BI40" s="69"/>
+      <c r="BJ40" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
-      <c r="B41" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="85">
-        <v>0.375</v>
-      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="85"/>
       <c r="E41" s="85"/>
       <c r="F41" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G41" s="55"/>
@@ -7501,8 +11364,27 @@
       <c r="AR41" s="55"/>
       <c r="AS41" s="55"/>
       <c r="AT41" s="55"/>
-    </row>
-    <row r="42" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU41" s="55"/>
+      <c r="AV41" s="55"/>
+      <c r="AW41" s="55"/>
+      <c r="AX41" s="55"/>
+      <c r="AY41" s="55"/>
+      <c r="AZ41" s="55"/>
+      <c r="BA41" s="55"/>
+      <c r="BB41" s="55"/>
+      <c r="BC41" s="55"/>
+      <c r="BD41" s="55"/>
+      <c r="BE41" s="67"/>
+      <c r="BF41" s="68"/>
+      <c r="BG41" s="68"/>
+      <c r="BH41" s="68"/>
+      <c r="BI41" s="69"/>
+      <c r="BJ41" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>11</v>
       </c>
@@ -7511,12 +11393,12 @@
       </c>
       <c r="C42" s="88">
         <f>SUM(C43:E43)</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D42" s="88"/>
       <c r="E42" s="88"/>
       <c r="F42" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G42" s="60"/>
@@ -7559,19 +11441,31 @@
       <c r="AR42" s="60"/>
       <c r="AS42" s="60"/>
       <c r="AT42" s="60"/>
-    </row>
-    <row r="43" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU42" s="60"/>
+      <c r="AV42" s="60"/>
+      <c r="AW42" s="60"/>
+      <c r="AX42" s="60"/>
+      <c r="AY42" s="60"/>
+      <c r="AZ42" s="60"/>
+      <c r="BA42" s="60"/>
+      <c r="BB42" s="60"/>
+      <c r="BC42" s="60"/>
+      <c r="BD42" s="60"/>
+      <c r="BE42" s="61"/>
+      <c r="BF42" s="62"/>
+      <c r="BG42" s="62"/>
+      <c r="BH42" s="62"/>
+      <c r="BI42" s="90"/>
+      <c r="BJ42" s="41"/>
+    </row>
+    <row r="43" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
-      <c r="B43" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="87">
-        <v>0.16666666666666666</v>
-      </c>
+      <c r="B43" s="34"/>
+      <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
       <c r="F43" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G43" s="67"/>
@@ -7614,8 +11508,27 @@
       <c r="AR43" s="55"/>
       <c r="AS43" s="55"/>
       <c r="AT43" s="55"/>
-    </row>
-    <row r="44" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU43" s="55"/>
+      <c r="AV43" s="55"/>
+      <c r="AW43" s="55"/>
+      <c r="AX43" s="55"/>
+      <c r="AY43" s="55"/>
+      <c r="AZ43" s="55"/>
+      <c r="BA43" s="55"/>
+      <c r="BB43" s="55"/>
+      <c r="BC43" s="55"/>
+      <c r="BD43" s="55"/>
+      <c r="BE43" s="67"/>
+      <c r="BF43" s="68"/>
+      <c r="BG43" s="68"/>
+      <c r="BH43" s="68"/>
+      <c r="BI43" s="69"/>
+      <c r="BJ43" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>12</v>
       </c>
@@ -7624,12 +11537,12 @@
       </c>
       <c r="C44" s="81">
         <f>SUM(C42,C38,C16,C11,C8)</f>
-        <v>2.4375</v>
+        <v>0</v>
       </c>
       <c r="D44" s="82"/>
       <c r="E44" s="82"/>
       <c r="F44" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G44" s="55"/>
@@ -7672,8 +11585,24 @@
       <c r="AR44" s="55"/>
       <c r="AS44" s="55"/>
       <c r="AT44" s="55"/>
-    </row>
-    <row r="45" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU44" s="55"/>
+      <c r="AV44" s="55"/>
+      <c r="AW44" s="55"/>
+      <c r="AX44" s="55"/>
+      <c r="AY44" s="55"/>
+      <c r="AZ44" s="55"/>
+      <c r="BA44" s="55"/>
+      <c r="BB44" s="55"/>
+      <c r="BC44" s="55"/>
+      <c r="BD44" s="55"/>
+      <c r="BE44" s="67"/>
+      <c r="BF44" s="68"/>
+      <c r="BG44" s="68"/>
+      <c r="BH44" s="68"/>
+      <c r="BI44" s="69"/>
+      <c r="BJ44" s="41"/>
+    </row>
+    <row r="45" spans="1:62" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>13</v>
       </c>
@@ -7684,7 +11613,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22"/>
       <c r="F45" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G45" s="80"/>
@@ -7727,12 +11656,28 @@
       <c r="AR45" s="80"/>
       <c r="AS45" s="80"/>
       <c r="AT45" s="80"/>
-    </row>
-    <row r="47" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU45" s="80"/>
+      <c r="AV45" s="80"/>
+      <c r="AW45" s="80"/>
+      <c r="AX45" s="80"/>
+      <c r="AY45" s="80"/>
+      <c r="AZ45" s="80"/>
+      <c r="BA45" s="80"/>
+      <c r="BB45" s="80"/>
+      <c r="BC45" s="80"/>
+      <c r="BD45" s="80"/>
+      <c r="BE45" s="96"/>
+      <c r="BF45" s="97"/>
+      <c r="BG45" s="97"/>
+      <c r="BH45" s="97"/>
+      <c r="BI45" s="98"/>
+      <c r="BJ45" s="41"/>
+    </row>
+    <row r="47" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="359">
+  <mergeCells count="479">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
@@ -8092,47 +12037,232 @@
     <mergeCell ref="AF44:AJ44"/>
     <mergeCell ref="AK44:AO44"/>
     <mergeCell ref="AP44:AT44"/>
+    <mergeCell ref="AU4:AY4"/>
+    <mergeCell ref="AU6:AY6"/>
+    <mergeCell ref="AU8:AY8"/>
+    <mergeCell ref="AU9:AY9"/>
+    <mergeCell ref="AU10:AY10"/>
+    <mergeCell ref="AU11:AY11"/>
+    <mergeCell ref="AU12:AY12"/>
+    <mergeCell ref="AU13:AY13"/>
+    <mergeCell ref="AU14:AY14"/>
+    <mergeCell ref="AU15:AY15"/>
+    <mergeCell ref="AU16:AY16"/>
+    <mergeCell ref="AU17:AY17"/>
+    <mergeCell ref="AU18:AY18"/>
+    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AU20:AY20"/>
+    <mergeCell ref="AU21:AY21"/>
+    <mergeCell ref="AU22:AY22"/>
+    <mergeCell ref="AU23:AY23"/>
+    <mergeCell ref="AU24:AY24"/>
+    <mergeCell ref="AU25:AY25"/>
+    <mergeCell ref="AU26:AY26"/>
+    <mergeCell ref="AU27:AY27"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="AU33:AY33"/>
+    <mergeCell ref="AU34:AY34"/>
+    <mergeCell ref="AU35:AY35"/>
+    <mergeCell ref="AU36:AY36"/>
+    <mergeCell ref="AU37:AY37"/>
+    <mergeCell ref="AU38:AY38"/>
+    <mergeCell ref="AU39:AY39"/>
+    <mergeCell ref="AU40:AY40"/>
+    <mergeCell ref="AU41:AY41"/>
+    <mergeCell ref="AU42:AY42"/>
+    <mergeCell ref="AU43:AY43"/>
+    <mergeCell ref="AU44:AY44"/>
+    <mergeCell ref="AU45:AY45"/>
+    <mergeCell ref="AZ4:BD4"/>
+    <mergeCell ref="AZ6:BD6"/>
+    <mergeCell ref="AZ8:BD8"/>
+    <mergeCell ref="AZ9:BD9"/>
+    <mergeCell ref="AZ10:BD10"/>
+    <mergeCell ref="AZ11:BD11"/>
+    <mergeCell ref="AZ12:BD12"/>
+    <mergeCell ref="AZ13:BD13"/>
+    <mergeCell ref="AZ14:BD14"/>
+    <mergeCell ref="AZ15:BD15"/>
+    <mergeCell ref="AZ16:BD16"/>
+    <mergeCell ref="AZ17:BD17"/>
+    <mergeCell ref="AZ18:BD18"/>
+    <mergeCell ref="AZ19:BD19"/>
+    <mergeCell ref="AZ20:BD20"/>
+    <mergeCell ref="AZ21:BD21"/>
+    <mergeCell ref="AZ22:BD22"/>
+    <mergeCell ref="AZ23:BD23"/>
+    <mergeCell ref="AZ24:BD24"/>
+    <mergeCell ref="AZ25:BD25"/>
+    <mergeCell ref="AZ26:BD26"/>
+    <mergeCell ref="AZ27:BD27"/>
+    <mergeCell ref="AZ28:BD28"/>
+    <mergeCell ref="AZ29:BD29"/>
+    <mergeCell ref="AZ30:BD30"/>
+    <mergeCell ref="AZ31:BD31"/>
+    <mergeCell ref="AZ32:BD32"/>
+    <mergeCell ref="AZ33:BD33"/>
+    <mergeCell ref="AZ34:BD34"/>
+    <mergeCell ref="AZ35:BD35"/>
+    <mergeCell ref="AZ36:BD36"/>
+    <mergeCell ref="AZ37:BD37"/>
+    <mergeCell ref="AZ38:BD38"/>
+    <mergeCell ref="AZ39:BD39"/>
+    <mergeCell ref="AZ40:BD40"/>
+    <mergeCell ref="AZ41:BD41"/>
+    <mergeCell ref="AZ42:BD42"/>
+    <mergeCell ref="AZ43:BD43"/>
+    <mergeCell ref="AZ44:BD44"/>
+    <mergeCell ref="AZ45:BD45"/>
+    <mergeCell ref="BE4:BI4"/>
+    <mergeCell ref="BE6:BI6"/>
+    <mergeCell ref="BE8:BI8"/>
+    <mergeCell ref="BE9:BI9"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="BE11:BI11"/>
+    <mergeCell ref="BE12:BI12"/>
+    <mergeCell ref="BE13:BI13"/>
+    <mergeCell ref="BE14:BI14"/>
+    <mergeCell ref="BE15:BI15"/>
+    <mergeCell ref="BE16:BI16"/>
+    <mergeCell ref="BE17:BI17"/>
+    <mergeCell ref="BE18:BI18"/>
+    <mergeCell ref="BE19:BI19"/>
+    <mergeCell ref="BE20:BI20"/>
+    <mergeCell ref="BE21:BI21"/>
+    <mergeCell ref="BE22:BI22"/>
+    <mergeCell ref="BE23:BI23"/>
+    <mergeCell ref="BE24:BI24"/>
+    <mergeCell ref="BE25:BI25"/>
+    <mergeCell ref="BE26:BI26"/>
+    <mergeCell ref="BE27:BI27"/>
+    <mergeCell ref="BE28:BI28"/>
+    <mergeCell ref="BE29:BI29"/>
+    <mergeCell ref="BE30:BI30"/>
+    <mergeCell ref="BE31:BI31"/>
+    <mergeCell ref="BE32:BI32"/>
+    <mergeCell ref="BE33:BI33"/>
+    <mergeCell ref="BE34:BI34"/>
+    <mergeCell ref="BE35:BI35"/>
+    <mergeCell ref="BE36:BI36"/>
+    <mergeCell ref="BE37:BI37"/>
+    <mergeCell ref="BE38:BI38"/>
+    <mergeCell ref="BE39:BI39"/>
+    <mergeCell ref="BE40:BI40"/>
+    <mergeCell ref="BE41:BI41"/>
+    <mergeCell ref="BE42:BI42"/>
+    <mergeCell ref="BE43:BI43"/>
+    <mergeCell ref="BE44:BI44"/>
+    <mergeCell ref="BE45:BI45"/>
   </mergeCells>
   <conditionalFormatting sqref="G17:AT37">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="21">
       <formula>LEN(TRIM(G17))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:AT41">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="20">
       <formula>LEN(TRIM(G39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:AT43">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="4">
+  <conditionalFormatting sqref="G43:BI43">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="19">
       <formula>LEN(TRIM(G43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:AT10">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="17">
       <formula>LEN(TRIM(G9))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="13" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="18">
       <formula>LEN(TRIM(G9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:AT15">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="16">
       <formula>LEN(TRIM(G12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AU17:AY37">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="15">
+      <formula>LEN(TRIM(AU17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU39:AY41">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="14">
+      <formula>LEN(TRIM(AU39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU9:AY10">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="12">
+      <formula>LEN(TRIM(AU9))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="17" priority="13">
+      <formula>LEN(TRIM(AU9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU12:AY15">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="11">
+      <formula>LEN(TRIM(AU12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ17:BD37">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="10">
+      <formula>LEN(TRIM(AZ17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ39:BD41">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="9">
+      <formula>LEN(TRIM(AZ39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ9:BD10">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="7">
+      <formula>LEN(TRIM(AZ9))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="8">
+      <formula>LEN(TRIM(AZ9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ12:BD15">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="6">
+      <formula>LEN(TRIM(AZ12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE17:BI37">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="5">
+      <formula>LEN(TRIM(BE17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE39:BI41">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="4">
+      <formula>LEN(TRIM(BE39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE9:BI10">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="2">
+      <formula>LEN(TRIM(BE9))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3">
+      <formula>LEN(TRIM(BE9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE12:BI15">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
+      <formula>LEN(TRIM(BE12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Semaine d’affichage" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="D4" xr:uid="{4CA52660-AD7C-4613-82FC-087A91937694}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Semaine d’affichage" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="D4" xr:uid="{BA02735B-0321-4BD5-8EE8-C61CCBFD1EFF}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{9CE43A33-F1B3-4832-87FA-C0792989A0F1}"/>
-    <hyperlink ref="G1" r:id="rId2" xr:uid="{650F2011-AA80-41C1-B5EE-9E2EBAB0A7A3}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -8142,16 +12272,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387117F4-96AB-4317-8096-9092958D5A89}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0651D6-A36C-48EA-A92B-8D6927ED00F9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT47"/>
+  <dimension ref="A1:AT57"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ12" sqref="AZ12"/>
+      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8166,7 +12296,9 @@
     <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="15" width="2.5703125" customWidth="1"/>
     <col min="16" max="16" width="3.7109375" customWidth="1"/>
-    <col min="17" max="25" width="2.5703125" customWidth="1"/>
+    <col min="17" max="20" width="2.5703125" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" customWidth="1"/>
+    <col min="22" max="25" width="2.5703125" customWidth="1"/>
     <col min="26" max="26" width="4.7109375" customWidth="1"/>
     <col min="27" max="30" width="2.5703125" customWidth="1"/>
     <col min="31" max="31" width="4.28515625" customWidth="1"/>
@@ -8214,10 +12346,10 @@
       <c r="C3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="95">
+      <c r="D3" s="94">
         <v>44950</v>
       </c>
-      <c r="E3" s="96"/>
+      <c r="E3" s="95"/>
     </row>
     <row r="4" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -8227,56 +12359,56 @@
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
       <c r="G4" s="46">
-        <v>44950</v>
+        <v>44958</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
       <c r="L4" s="46">
-        <v>44957</v>
+        <v>44965</v>
       </c>
       <c r="M4" s="47"/>
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="46">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="R4" s="47"/>
       <c r="S4" s="47"/>
       <c r="T4" s="47"/>
       <c r="U4" s="47"/>
       <c r="V4" s="46">
-        <v>44971</v>
+        <v>44986</v>
       </c>
       <c r="W4" s="47"/>
       <c r="X4" s="47"/>
       <c r="Y4" s="47"/>
       <c r="Z4" s="47"/>
       <c r="AA4" s="46">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="AB4" s="47"/>
       <c r="AC4" s="47"/>
       <c r="AD4" s="47"/>
       <c r="AE4" s="47"/>
       <c r="AF4" s="46">
-        <v>44992</v>
+        <v>45000</v>
       </c>
       <c r="AG4" s="47"/>
       <c r="AH4" s="47"/>
       <c r="AI4" s="47"/>
       <c r="AJ4" s="47"/>
       <c r="AK4" s="46">
-        <v>44999</v>
+        <v>45007</v>
       </c>
       <c r="AL4" s="47"/>
       <c r="AM4" s="47"/>
       <c r="AN4" s="47"/>
       <c r="AO4" s="47"/>
       <c r="AP4" s="46">
-        <v>45006</v>
+        <v>45014</v>
       </c>
       <c r="AQ4" s="47"/>
       <c r="AR4" s="47"/>
@@ -8347,2897 +12479,70 @@
       <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="94"/>
-      <c r="AK6" s="92"/>
-      <c r="AL6" s="93"/>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="93"/>
-      <c r="AO6" s="94"/>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="94"/>
-    </row>
-    <row r="7" spans="1:46" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7"/>
-      <c r="F7" t="str">
-        <f>IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v/>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="30"/>
-      <c r="AR7" s="30"/>
-      <c r="AS7" s="30"/>
-      <c r="AT7" s="30"/>
-    </row>
-    <row r="8" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="74">
-        <f>SUM(C9:E10)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="7" t="str">
-        <f t="shared" ref="F8:F45" si="0">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v/>
-      </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="55"/>
-    </row>
-    <row r="9" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="79">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="68"/>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="68"/>
-      <c r="AM9" s="68"/>
-      <c r="AN9" s="68"/>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="67"/>
-      <c r="AQ9" s="68"/>
-      <c r="AR9" s="68"/>
-      <c r="AS9" s="68"/>
-      <c r="AT9" s="69"/>
-    </row>
-    <row r="10" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="79">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="67"/>
-      <c r="AL10" s="68"/>
-      <c r="AM10" s="68"/>
-      <c r="AN10" s="68"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="67"/>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="68"/>
-      <c r="AS10" s="68"/>
-      <c r="AT10" s="69"/>
-    </row>
-    <row r="11" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="76">
-        <f>SUM(C12:E15)</f>
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="55"/>
-      <c r="AN11" s="55"/>
-      <c r="AO11" s="55"/>
-      <c r="AP11" s="55"/>
-      <c r="AQ11" s="55"/>
-      <c r="AR11" s="55"/>
-      <c r="AS11" s="55"/>
-      <c r="AT11" s="55"/>
-    </row>
-    <row r="12" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="77">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AS12" s="55"/>
-      <c r="AT12" s="55"/>
-    </row>
-    <row r="13" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="77">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="55"/>
-      <c r="AO13" s="55"/>
-      <c r="AP13" s="55"/>
-      <c r="AQ13" s="55"/>
-      <c r="AR13" s="55"/>
-      <c r="AS13" s="55"/>
-      <c r="AT13" s="55"/>
-    </row>
-    <row r="14" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="77">
-        <v>0.125</v>
-      </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="55"/>
-      <c r="AS14" s="55"/>
-      <c r="AT14" s="55"/>
-    </row>
-    <row r="15" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="77">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="54"/>
-      <c r="AS15" s="54"/>
-      <c r="AT15" s="54"/>
-    </row>
-    <row r="16" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="83">
-        <f>SUM(C17:E33)</f>
-        <v>1.3472222222222221</v>
-      </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="61"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="61"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="90"/>
-    </row>
-    <row r="17" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="78">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="56"/>
-      <c r="AQ17" s="56"/>
-      <c r="AR17" s="56"/>
-      <c r="AS17" s="56"/>
-      <c r="AT17" s="56"/>
-    </row>
-    <row r="18" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="78">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="55"/>
-      <c r="AG18" s="55"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="55"/>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="55"/>
-      <c r="AM18" s="55"/>
-      <c r="AN18" s="55"/>
-      <c r="AO18" s="55"/>
-      <c r="AP18" s="55"/>
-      <c r="AQ18" s="55"/>
-      <c r="AR18" s="55"/>
-      <c r="AS18" s="55"/>
-      <c r="AT18" s="55"/>
-    </row>
-    <row r="19" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="78">
-        <v>0.125</v>
-      </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="55"/>
-      <c r="AH19" s="55"/>
-      <c r="AI19" s="55"/>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="55"/>
-      <c r="AN19" s="55"/>
-      <c r="AO19" s="55"/>
-      <c r="AP19" s="55"/>
-      <c r="AQ19" s="55"/>
-      <c r="AR19" s="55"/>
-      <c r="AS19" s="55"/>
-      <c r="AT19" s="55"/>
-    </row>
-    <row r="20" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="78">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="55"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="55"/>
-      <c r="AJ20" s="55"/>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="55"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="55"/>
-      <c r="AP20" s="55"/>
-      <c r="AQ20" s="55"/>
-      <c r="AR20" s="55"/>
-      <c r="AS20" s="55"/>
-      <c r="AT20" s="55"/>
-    </row>
-    <row r="21" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="78">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="67"/>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="69"/>
-      <c r="AP21" s="67"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="69"/>
-    </row>
-    <row r="22" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="78">
-        <v>0.125</v>
-      </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="55"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="55"/>
-      <c r="AG22" s="55"/>
-      <c r="AH22" s="55"/>
-      <c r="AI22" s="55"/>
-      <c r="AJ22" s="55"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="55"/>
-      <c r="AO22" s="55"/>
-      <c r="AP22" s="55"/>
-      <c r="AQ22" s="55"/>
-      <c r="AR22" s="55"/>
-      <c r="AS22" s="55"/>
-      <c r="AT22" s="55"/>
-    </row>
-    <row r="23" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="78">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="55"/>
-      <c r="AH23" s="55"/>
-      <c r="AI23" s="55"/>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="55"/>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="55"/>
-      <c r="AP23" s="55"/>
-      <c r="AQ23" s="55"/>
-      <c r="AR23" s="55"/>
-      <c r="AS23" s="55"/>
-      <c r="AT23" s="55"/>
-    </row>
-    <row r="24" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="78">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="55"/>
-      <c r="AG24" s="55"/>
-      <c r="AH24" s="55"/>
-      <c r="AI24" s="55"/>
-      <c r="AJ24" s="55"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="55"/>
-      <c r="AN24" s="55"/>
-      <c r="AO24" s="55"/>
-      <c r="AP24" s="55"/>
-      <c r="AQ24" s="55"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="55"/>
-      <c r="AT24" s="55"/>
-    </row>
-    <row r="25" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="78">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="55"/>
-      <c r="AI25" s="55"/>
-      <c r="AJ25" s="55"/>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="55"/>
-      <c r="AN25" s="55"/>
-      <c r="AO25" s="55"/>
-      <c r="AP25" s="55"/>
-      <c r="AQ25" s="55"/>
-      <c r="AR25" s="55"/>
-      <c r="AS25" s="55"/>
-      <c r="AT25" s="55"/>
-    </row>
-    <row r="26" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="78">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="55"/>
-      <c r="AJ26" s="55"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="55"/>
-      <c r="AN26" s="55"/>
-      <c r="AO26" s="55"/>
-      <c r="AP26" s="55"/>
-      <c r="AQ26" s="55"/>
-      <c r="AR26" s="55"/>
-      <c r="AS26" s="55"/>
-      <c r="AT26" s="55"/>
-    </row>
-    <row r="27" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="78">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="55"/>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="55"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="55"/>
-      <c r="AO27" s="55"/>
-      <c r="AP27" s="55"/>
-      <c r="AQ27" s="55"/>
-      <c r="AR27" s="55"/>
-      <c r="AS27" s="55"/>
-      <c r="AT27" s="55"/>
-    </row>
-    <row r="28" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="78">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="55"/>
-      <c r="AN28" s="55"/>
-      <c r="AO28" s="55"/>
-      <c r="AP28" s="55"/>
-      <c r="AQ28" s="55"/>
-      <c r="AR28" s="55"/>
-      <c r="AS28" s="55"/>
-      <c r="AT28" s="55"/>
-    </row>
-    <row r="29" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="78">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="55"/>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="55"/>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="55"/>
-      <c r="AO29" s="55"/>
-      <c r="AP29" s="55"/>
-      <c r="AQ29" s="55"/>
-      <c r="AR29" s="55"/>
-      <c r="AS29" s="55"/>
-      <c r="AT29" s="55"/>
-    </row>
-    <row r="30" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="78">
-        <v>0.125</v>
-      </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="55"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
-      <c r="AN30" s="55"/>
-      <c r="AO30" s="55"/>
-      <c r="AP30" s="55"/>
-      <c r="AQ30" s="55"/>
-      <c r="AR30" s="55"/>
-      <c r="AS30" s="55"/>
-      <c r="AT30" s="55"/>
-    </row>
-    <row r="31" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="78">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="55"/>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="55"/>
-      <c r="AO31" s="55"/>
-      <c r="AP31" s="55"/>
-      <c r="AQ31" s="55"/>
-      <c r="AR31" s="55"/>
-      <c r="AS31" s="55"/>
-      <c r="AT31" s="55"/>
-    </row>
-    <row r="32" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="78">
-        <v>0.125</v>
-      </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="55"/>
-      <c r="AO32" s="55"/>
-      <c r="AP32" s="55"/>
-      <c r="AQ32" s="55"/>
-      <c r="AR32" s="55"/>
-      <c r="AS32" s="55"/>
-      <c r="AT32" s="55"/>
-    </row>
-    <row r="33" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="78">
-        <v>0.125</v>
-      </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="55"/>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="55"/>
-      <c r="AG33" s="55"/>
-      <c r="AH33" s="55"/>
-      <c r="AI33" s="55"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="55"/>
-      <c r="AO33" s="55"/>
-      <c r="AP33" s="55"/>
-      <c r="AQ33" s="55"/>
-      <c r="AR33" s="55"/>
-      <c r="AS33" s="55"/>
-      <c r="AT33" s="55"/>
-    </row>
-    <row r="34" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="78">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="55"/>
-      <c r="AB34" s="55"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="55"/>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="55"/>
-      <c r="AI34" s="55"/>
-      <c r="AJ34" s="55"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="55"/>
-      <c r="AN34" s="55"/>
-      <c r="AO34" s="55"/>
-      <c r="AP34" s="55"/>
-      <c r="AQ34" s="55"/>
-      <c r="AR34" s="55"/>
-      <c r="AS34" s="55"/>
-      <c r="AT34" s="55"/>
-    </row>
-    <row r="35" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="78">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="55"/>
-      <c r="AB35" s="55"/>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="55"/>
-      <c r="AG35" s="55"/>
-      <c r="AH35" s="55"/>
-      <c r="AI35" s="55"/>
-      <c r="AJ35" s="55"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="55"/>
-      <c r="AN35" s="55"/>
-      <c r="AO35" s="55"/>
-      <c r="AP35" s="55"/>
-      <c r="AQ35" s="55"/>
-      <c r="AR35" s="55"/>
-      <c r="AS35" s="55"/>
-      <c r="AT35" s="55"/>
-    </row>
-    <row r="36" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="78">
-        <v>0.125</v>
-      </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="55"/>
-      <c r="AF36" s="55"/>
-      <c r="AG36" s="55"/>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="55"/>
-      <c r="AJ36" s="55"/>
-      <c r="AK36" s="55"/>
-      <c r="AL36" s="55"/>
-      <c r="AM36" s="55"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="55"/>
-      <c r="AP36" s="55"/>
-      <c r="AQ36" s="55"/>
-      <c r="AR36" s="55"/>
-      <c r="AS36" s="55"/>
-      <c r="AT36" s="55"/>
-    </row>
-    <row r="37" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="78">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="55"/>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="55"/>
-      <c r="AJ37" s="55"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="55"/>
-      <c r="AN37" s="55"/>
-      <c r="AO37" s="55"/>
-      <c r="AP37" s="55"/>
-      <c r="AQ37" s="55"/>
-      <c r="AR37" s="55"/>
-      <c r="AS37" s="55"/>
-      <c r="AT37" s="55"/>
-    </row>
-    <row r="38" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="89">
-        <f>SUM(C39:E41)</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="60"/>
-      <c r="V38" s="60"/>
-      <c r="W38" s="60"/>
-      <c r="X38" s="60"/>
-      <c r="Y38" s="60"/>
-      <c r="Z38" s="60"/>
-      <c r="AA38" s="60"/>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="60"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="60"/>
-      <c r="AF38" s="60"/>
-      <c r="AG38" s="60"/>
-      <c r="AH38" s="60"/>
-      <c r="AI38" s="60"/>
-      <c r="AJ38" s="60"/>
-      <c r="AK38" s="60"/>
-      <c r="AL38" s="60"/>
-      <c r="AM38" s="60"/>
-      <c r="AN38" s="60"/>
-      <c r="AO38" s="60"/>
-      <c r="AP38" s="60"/>
-      <c r="AQ38" s="60"/>
-      <c r="AR38" s="60"/>
-      <c r="AS38" s="60"/>
-      <c r="AT38" s="60"/>
-    </row>
-    <row r="39" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="85">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="56"/>
-      <c r="AL39" s="56"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="56"/>
-      <c r="AP39" s="56"/>
-      <c r="AQ39" s="56"/>
-      <c r="AR39" s="56"/>
-      <c r="AS39" s="56"/>
-      <c r="AT39" s="56"/>
-    </row>
-    <row r="40" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="85">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
-      <c r="AC40" s="55"/>
-      <c r="AD40" s="55"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="55"/>
-      <c r="AG40" s="55"/>
-      <c r="AH40" s="55"/>
-      <c r="AI40" s="55"/>
-      <c r="AJ40" s="55"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="55"/>
-      <c r="AN40" s="55"/>
-      <c r="AO40" s="55"/>
-      <c r="AP40" s="55"/>
-      <c r="AQ40" s="55"/>
-      <c r="AR40" s="55"/>
-      <c r="AS40" s="55"/>
-      <c r="AT40" s="55"/>
-    </row>
-    <row r="41" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="85">
-        <v>0.375</v>
-      </c>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="55"/>
-      <c r="Z41" s="55"/>
-      <c r="AA41" s="55"/>
-      <c r="AB41" s="55"/>
-      <c r="AC41" s="55"/>
-      <c r="AD41" s="55"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="55"/>
-      <c r="AG41" s="55"/>
-      <c r="AH41" s="55"/>
-      <c r="AI41" s="55"/>
-      <c r="AJ41" s="55"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="55"/>
-      <c r="AN41" s="55"/>
-      <c r="AO41" s="55"/>
-      <c r="AP41" s="55"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="55"/>
-      <c r="AS41" s="55"/>
-      <c r="AT41" s="55"/>
-    </row>
-    <row r="42" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="88">
-        <f>SUM(C43:E43)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="60"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="60"/>
-      <c r="X42" s="60"/>
-      <c r="Y42" s="60"/>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="60"/>
-      <c r="AD42" s="60"/>
-      <c r="AE42" s="60"/>
-      <c r="AF42" s="60"/>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="60"/>
-      <c r="AI42" s="60"/>
-      <c r="AJ42" s="60"/>
-      <c r="AK42" s="60"/>
-      <c r="AL42" s="60"/>
-      <c r="AM42" s="60"/>
-      <c r="AN42" s="60"/>
-      <c r="AO42" s="60"/>
-      <c r="AP42" s="60"/>
-      <c r="AQ42" s="60"/>
-      <c r="AR42" s="60"/>
-      <c r="AS42" s="60"/>
-      <c r="AT42" s="60"/>
-    </row>
-    <row r="43" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="87">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G43" s="67"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="55"/>
-      <c r="W43" s="55"/>
-      <c r="X43" s="55"/>
-      <c r="Y43" s="55"/>
-      <c r="Z43" s="55"/>
-      <c r="AA43" s="55"/>
-      <c r="AB43" s="55"/>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="55"/>
-      <c r="AE43" s="55"/>
-      <c r="AF43" s="55"/>
-      <c r="AG43" s="55"/>
-      <c r="AH43" s="55"/>
-      <c r="AI43" s="55"/>
-      <c r="AJ43" s="55"/>
-      <c r="AK43" s="55"/>
-      <c r="AL43" s="55"/>
-      <c r="AM43" s="55"/>
-      <c r="AN43" s="55"/>
-      <c r="AO43" s="55"/>
-      <c r="AP43" s="55"/>
-      <c r="AQ43" s="55"/>
-      <c r="AR43" s="55"/>
-      <c r="AS43" s="55"/>
-      <c r="AT43" s="55"/>
-    </row>
-    <row r="44" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="81">
-        <f>SUM(C42,C38,C16,C11,C8)</f>
-        <v>2.4375</v>
-      </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="55"/>
-      <c r="Y44" s="55"/>
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="55"/>
-      <c r="AB44" s="55"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="55"/>
-      <c r="AE44" s="55"/>
-      <c r="AF44" s="55"/>
-      <c r="AG44" s="55"/>
-      <c r="AH44" s="55"/>
-      <c r="AI44" s="55"/>
-      <c r="AJ44" s="55"/>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="55"/>
-      <c r="AM44" s="55"/>
-      <c r="AN44" s="55"/>
-      <c r="AO44" s="55"/>
-      <c r="AP44" s="55"/>
-      <c r="AQ44" s="55"/>
-      <c r="AR44" s="55"/>
-      <c r="AS44" s="55"/>
-      <c r="AT44" s="55"/>
-    </row>
-    <row r="45" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="80"/>
-      <c r="R45" s="80"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="80"/>
-      <c r="U45" s="80"/>
-      <c r="V45" s="80"/>
-      <c r="W45" s="80"/>
-      <c r="X45" s="80"/>
-      <c r="Y45" s="80"/>
-      <c r="Z45" s="80"/>
-      <c r="AA45" s="80"/>
-      <c r="AB45" s="80"/>
-      <c r="AC45" s="80"/>
-      <c r="AD45" s="80"/>
-      <c r="AE45" s="80"/>
-      <c r="AF45" s="80"/>
-      <c r="AG45" s="80"/>
-      <c r="AH45" s="80"/>
-      <c r="AI45" s="80"/>
-      <c r="AJ45" s="80"/>
-      <c r="AK45" s="80"/>
-      <c r="AL45" s="80"/>
-      <c r="AM45" s="80"/>
-      <c r="AN45" s="80"/>
-      <c r="AO45" s="80"/>
-      <c r="AP45" s="80"/>
-      <c r="AQ45" s="80"/>
-      <c r="AR45" s="80"/>
-      <c r="AS45" s="80"/>
-      <c r="AT45" s="80"/>
-    </row>
-    <row r="47" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="359">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="AK4:AO4"/>
-    <mergeCell ref="AP4:AT4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="AA6:AE6"/>
-    <mergeCell ref="AF6:AJ6"/>
-    <mergeCell ref="AK6:AO6"/>
-    <mergeCell ref="AP6:AT6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AJ8"/>
-    <mergeCell ref="AK8:AO8"/>
-    <mergeCell ref="AP8:AT8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA9:AE9"/>
-    <mergeCell ref="AF9:AJ9"/>
-    <mergeCell ref="AK9:AO9"/>
-    <mergeCell ref="AP9:AT9"/>
-    <mergeCell ref="AF10:AJ10"/>
-    <mergeCell ref="AK10:AO10"/>
-    <mergeCell ref="AP10:AT10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="AF11:AJ11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V10:Z10"/>
-    <mergeCell ref="AA10:AE10"/>
-    <mergeCell ref="AK11:AO11"/>
-    <mergeCell ref="AP11:AT11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="V12:Z12"/>
-    <mergeCell ref="AA12:AE12"/>
-    <mergeCell ref="AF12:AJ12"/>
-    <mergeCell ref="AK12:AO12"/>
-    <mergeCell ref="AP12:AT12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="V13:Z13"/>
-    <mergeCell ref="AA13:AE13"/>
-    <mergeCell ref="AF13:AJ13"/>
-    <mergeCell ref="AK13:AO13"/>
-    <mergeCell ref="AP13:AT13"/>
-    <mergeCell ref="AF14:AJ14"/>
-    <mergeCell ref="AK14:AO14"/>
-    <mergeCell ref="AP14:AT14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="V15:Z15"/>
-    <mergeCell ref="AA15:AE15"/>
-    <mergeCell ref="AF15:AJ15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="AK15:AO15"/>
-    <mergeCell ref="AP15:AT15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="V16:Z16"/>
-    <mergeCell ref="AA16:AE16"/>
-    <mergeCell ref="AF16:AJ16"/>
-    <mergeCell ref="AK16:AO16"/>
-    <mergeCell ref="AP16:AT16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="AA17:AE17"/>
-    <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="AK17:AO17"/>
-    <mergeCell ref="AP17:AT17"/>
-    <mergeCell ref="AF18:AJ18"/>
-    <mergeCell ref="AK18:AO18"/>
-    <mergeCell ref="AP18:AT18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="AA19:AE19"/>
-    <mergeCell ref="AF19:AJ19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="AA18:AE18"/>
-    <mergeCell ref="AK19:AO19"/>
-    <mergeCell ref="AP19:AT19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="V20:Z20"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="AF20:AJ20"/>
-    <mergeCell ref="AK20:AO20"/>
-    <mergeCell ref="AP20:AT20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="V21:Z21"/>
-    <mergeCell ref="AA21:AE21"/>
-    <mergeCell ref="AF21:AJ21"/>
-    <mergeCell ref="AK21:AO21"/>
-    <mergeCell ref="AP21:AT21"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="AK22:AO22"/>
-    <mergeCell ref="AP22:AT22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="V23:Z23"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="AF23:AJ23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="V22:Z22"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="AK23:AO23"/>
-    <mergeCell ref="AP23:AT23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="V24:Z24"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="AF24:AJ24"/>
-    <mergeCell ref="AK24:AO24"/>
-    <mergeCell ref="AP24:AT24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="AF25:AJ25"/>
-    <mergeCell ref="AK25:AO25"/>
-    <mergeCell ref="AP25:AT25"/>
-    <mergeCell ref="AF26:AJ26"/>
-    <mergeCell ref="AK26:AO26"/>
-    <mergeCell ref="AP26:AT26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="AA27:AE27"/>
-    <mergeCell ref="AF27:AJ27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="AA26:AE26"/>
-    <mergeCell ref="AK27:AO27"/>
-    <mergeCell ref="AP27:AT27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="V28:Z28"/>
-    <mergeCell ref="AA28:AE28"/>
-    <mergeCell ref="AF28:AJ28"/>
-    <mergeCell ref="AK28:AO28"/>
-    <mergeCell ref="AP28:AT28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="V29:Z29"/>
-    <mergeCell ref="AA29:AE29"/>
-    <mergeCell ref="AF29:AJ29"/>
-    <mergeCell ref="AK29:AO29"/>
-    <mergeCell ref="AP29:AT29"/>
-    <mergeCell ref="AF30:AJ30"/>
-    <mergeCell ref="AK30:AO30"/>
-    <mergeCell ref="AP30:AT30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="V31:Z31"/>
-    <mergeCell ref="AA31:AE31"/>
-    <mergeCell ref="AF31:AJ31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="V30:Z30"/>
-    <mergeCell ref="AA30:AE30"/>
-    <mergeCell ref="AK31:AO31"/>
-    <mergeCell ref="AP31:AT31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="V32:Z32"/>
-    <mergeCell ref="AA32:AE32"/>
-    <mergeCell ref="AF32:AJ32"/>
-    <mergeCell ref="AK32:AO32"/>
-    <mergeCell ref="AP32:AT32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="V33:Z33"/>
-    <mergeCell ref="AA33:AE33"/>
-    <mergeCell ref="AF33:AJ33"/>
-    <mergeCell ref="AK33:AO33"/>
-    <mergeCell ref="AP33:AT33"/>
-    <mergeCell ref="AF34:AJ34"/>
-    <mergeCell ref="AK34:AO34"/>
-    <mergeCell ref="AP34:AT34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="AA35:AE35"/>
-    <mergeCell ref="AF35:AJ35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="AA34:AE34"/>
-    <mergeCell ref="AK35:AO35"/>
-    <mergeCell ref="AP35:AT35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="AA36:AE36"/>
-    <mergeCell ref="AF36:AJ36"/>
-    <mergeCell ref="AK36:AO36"/>
-    <mergeCell ref="AP36:AT36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="V37:Z37"/>
-    <mergeCell ref="AA37:AE37"/>
-    <mergeCell ref="AF37:AJ37"/>
-    <mergeCell ref="AK37:AO37"/>
-    <mergeCell ref="AP37:AT37"/>
-    <mergeCell ref="AF38:AJ38"/>
-    <mergeCell ref="AK38:AO38"/>
-    <mergeCell ref="AP38:AT38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="V39:Z39"/>
-    <mergeCell ref="AA39:AE39"/>
-    <mergeCell ref="AF39:AJ39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="V38:Z38"/>
-    <mergeCell ref="AA38:AE38"/>
-    <mergeCell ref="AK39:AO39"/>
-    <mergeCell ref="AP39:AT39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="Q40:U40"/>
-    <mergeCell ref="V40:Z40"/>
-    <mergeCell ref="AA40:AE40"/>
-    <mergeCell ref="AF40:AJ40"/>
-    <mergeCell ref="AK40:AO40"/>
-    <mergeCell ref="AP40:AT40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="V41:Z41"/>
-    <mergeCell ref="AA41:AE41"/>
-    <mergeCell ref="AF41:AJ41"/>
-    <mergeCell ref="AK41:AO41"/>
-    <mergeCell ref="AP41:AT41"/>
-    <mergeCell ref="AF42:AJ42"/>
-    <mergeCell ref="AK42:AO42"/>
-    <mergeCell ref="AP42:AT42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="AA43:AE43"/>
-    <mergeCell ref="AF43:AJ43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="AA42:AE42"/>
-    <mergeCell ref="AK43:AO43"/>
-    <mergeCell ref="AP43:AT43"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="Q45:U45"/>
-    <mergeCell ref="V45:Z45"/>
-    <mergeCell ref="AA45:AE45"/>
-    <mergeCell ref="AF45:AJ45"/>
-    <mergeCell ref="AK45:AO45"/>
-    <mergeCell ref="AP45:AT45"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:Z44"/>
-    <mergeCell ref="AA44:AE44"/>
-    <mergeCell ref="AF44:AJ44"/>
-    <mergeCell ref="AK44:AO44"/>
-    <mergeCell ref="AP44:AT44"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G17:AT37">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="6">
-      <formula>LEN(TRIM(G17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:AT41">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="5">
-      <formula>LEN(TRIM(G39))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:AT43">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="4">
-      <formula>LEN(TRIM(G43))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:AT10">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="2">
-      <formula>LEN(TRIM(G9))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="3">
-      <formula>LEN(TRIM(G9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:AT15">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
-      <formula>LEN(TRIM(G12))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Semaine d’affichage" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="D4" xr:uid="{BA02735B-0321-4BD5-8EE8-C61CCBFD1EFF}">
-      <formula1>1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{6495AF87-2170-4BD3-8FDD-CCFFB17D0CFB}"/>
-    <hyperlink ref="G1" r:id="rId2" xr:uid="{FFE8C294-3760-49F6-BA3A-CEF6D23ED477}"/>
-  </hyperlinks>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId3"/>
-  <headerFooter differentFirst="1" scaleWithDoc="0">
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="44" max="16383" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D730BF-FB29-4DF8-BE71-C94F28271DF7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0651D6-A36C-48EA-A92B-8D6927ED00F9}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AT57"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16:P17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="2.5703125" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" customWidth="1"/>
-    <col min="12" max="15" width="2.5703125" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" customWidth="1"/>
-    <col min="17" max="20" width="2.5703125" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" customWidth="1"/>
-    <col min="22" max="25" width="2.5703125" customWidth="1"/>
-    <col min="26" max="26" width="4.7109375" customWidth="1"/>
-    <col min="27" max="30" width="2.5703125" customWidth="1"/>
-    <col min="31" max="31" width="4.28515625" customWidth="1"/>
-    <col min="32" max="35" width="2.5703125" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" customWidth="1"/>
-    <col min="37" max="40" width="2.5703125" customWidth="1"/>
-    <col min="41" max="41" width="5" customWidth="1"/>
-    <col min="42" max="45" width="2.5703125" customWidth="1"/>
-    <col min="46" max="46" width="5.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="95">
-        <v>44950</v>
-      </c>
-      <c r="E3" s="96"/>
-    </row>
-    <row r="4" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="G4" s="46">
-        <v>44958</v>
-      </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="46">
-        <v>44965</v>
-      </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="46">
-        <v>44972</v>
-      </c>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="46">
-        <v>44986</v>
-      </c>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="46">
-        <v>44993</v>
-      </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="46">
-        <v>45000</v>
-      </c>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="46">
-        <v>45007</v>
-      </c>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="46">
-        <v>45014</v>
-      </c>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="47"/>
-    </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="24"/>
-    </row>
-    <row r="6" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="G6" s="50">
         <f>SUM(G8:K54)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
       <c r="L6" s="50">
         <f>SUM(L8:P54)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="94"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="93"/>
       <c r="Q6" s="50">
         <f>SUM(Q8:U54)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="94"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="93"/>
       <c r="V6" s="50">
         <f>SUM(V8:Z54)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="94"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="93"/>
       <c r="AA6" s="50">
         <f>SUM(AA8:AE54)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="94"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="93"/>
       <c r="AF6" s="50">
         <f>SUM(AF8:AJ54)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="94"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="93"/>
       <c r="AK6" s="50">
         <f>SUM(AK8:AO54)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="93"/>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="93"/>
-      <c r="AO6" s="94"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="93"/>
       <c r="AP6" s="50">
         <f t="shared" ref="AP6" si="0">SUM(AP8:AT54)</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="94"/>
+      <c r="AQ6" s="92"/>
+      <c r="AR6" s="92"/>
+      <c r="AS6" s="92"/>
+      <c r="AT6" s="93"/>
     </row>
     <row r="7" spans="1:46" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -11415,41 +12720,41 @@
       <c r="I10" s="60"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="98"/>
-      <c r="AL10" s="98"/>
-      <c r="AM10" s="98"/>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="98"/>
-      <c r="AP10" s="98"/>
-      <c r="AQ10" s="98"/>
-      <c r="AR10" s="98"/>
-      <c r="AS10" s="98"/>
-      <c r="AT10" s="98"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="102"/>
     </row>
     <row r="11" spans="1:46" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
@@ -11840,12 +13145,12 @@
       <c r="B18" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="103">
         <f>SUM(C19:E22)</f>
         <v>3.8194444444444448E-2</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
       <c r="F18" s="7"/>
       <c r="G18" s="60"/>
       <c r="H18" s="60"/>
@@ -11893,11 +13198,11 @@
       <c r="B19" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="97">
+      <c r="C19" s="101">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
       <c r="F19" s="7"/>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
@@ -11945,11 +13250,11 @@
       <c r="B20" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="97">
+      <c r="C20" s="101">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
       <c r="F20" s="7"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
@@ -11997,11 +13302,11 @@
       <c r="B21" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C21" s="101">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
       <c r="F21" s="7"/>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
@@ -12049,11 +13354,11 @@
       <c r="B22" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="97">
+      <c r="C22" s="101">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
       <c r="F22" s="7"/>
       <c r="G22" s="55"/>
       <c r="H22" s="55"/>
@@ -13952,8 +15257,6 @@
     <mergeCell ref="AF9:AJ9"/>
     <mergeCell ref="AK9:AO9"/>
     <mergeCell ref="AP9:AT9"/>
-    <mergeCell ref="AK13:AO13"/>
-    <mergeCell ref="AP13:AT13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="L14:P14"/>
@@ -13969,7 +15272,6 @@
     <mergeCell ref="V13:Z13"/>
     <mergeCell ref="AA13:AE13"/>
     <mergeCell ref="AF13:AJ13"/>
-    <mergeCell ref="AP14:AT14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="L15:P15"/>
@@ -13979,8 +15281,6 @@
     <mergeCell ref="AF15:AJ15"/>
     <mergeCell ref="AK15:AO15"/>
     <mergeCell ref="AP15:AT15"/>
-    <mergeCell ref="AK16:AO16"/>
-    <mergeCell ref="AP16:AT16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="L17:P17"/>
@@ -14138,32 +15438,6 @@
     <mergeCell ref="AA37:AE37"/>
     <mergeCell ref="AK38:AO38"/>
     <mergeCell ref="AP38:AT38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="V39:Z39"/>
-    <mergeCell ref="AA39:AE39"/>
-    <mergeCell ref="AF39:AJ39"/>
-    <mergeCell ref="AK39:AO39"/>
-    <mergeCell ref="AA42:AE42"/>
-    <mergeCell ref="AF42:AJ42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="V41:Z41"/>
-    <mergeCell ref="AA41:AE41"/>
-    <mergeCell ref="AP39:AT39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="Q40:U40"/>
-    <mergeCell ref="V40:Z40"/>
-    <mergeCell ref="AA40:AE40"/>
-    <mergeCell ref="AF40:AJ40"/>
-    <mergeCell ref="AK40:AO40"/>
-    <mergeCell ref="AP40:AT40"/>
     <mergeCell ref="AF48:AJ48"/>
     <mergeCell ref="AK48:AO48"/>
     <mergeCell ref="AP48:AT48"/>
@@ -14237,8 +15511,20 @@
     <mergeCell ref="AP55:AT55"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="AF47:AJ47"/>
+    <mergeCell ref="AK47:AO47"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="V47:Z47"/>
+    <mergeCell ref="AA47:AE47"/>
+    <mergeCell ref="AA44:AE44"/>
+    <mergeCell ref="AF44:AJ44"/>
+    <mergeCell ref="AK44:AO44"/>
+    <mergeCell ref="AK42:AO42"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="AP19:AT19"/>
+    <mergeCell ref="G21:K21"/>
     <mergeCell ref="V10:Z10"/>
     <mergeCell ref="AA10:AE10"/>
     <mergeCell ref="AK45:AO45"/>
@@ -14255,6 +15541,22 @@
     <mergeCell ref="V45:Z45"/>
     <mergeCell ref="AA45:AE45"/>
     <mergeCell ref="AF45:AJ45"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:Z44"/>
+    <mergeCell ref="AP39:AT39"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="Q40:U40"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="AA19:AE19"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
@@ -14264,52 +15566,37 @@
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="L11:P11"/>
     <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="AF47:AJ47"/>
-    <mergeCell ref="AK47:AO47"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="V47:Z47"/>
-    <mergeCell ref="AA47:AE47"/>
     <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:Z44"/>
-    <mergeCell ref="AA44:AE44"/>
-    <mergeCell ref="AF44:AJ44"/>
-    <mergeCell ref="AK44:AO44"/>
-    <mergeCell ref="AK42:AO42"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="AP19:AT19"/>
     <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="AF21:AJ21"/>
+    <mergeCell ref="AK21:AO21"/>
+    <mergeCell ref="AP21:AT21"/>
+    <mergeCell ref="AP22:AT22"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="AK22:AO22"/>
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="G46:K46"/>
     <mergeCell ref="G45:K45"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="V20:Z20"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="AA19:AE19"/>
-    <mergeCell ref="AF19:AJ19"/>
-    <mergeCell ref="AK19:AO19"/>
-    <mergeCell ref="AP43:AT43"/>
-    <mergeCell ref="AP44:AT44"/>
-    <mergeCell ref="AP42:AT42"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="AA43:AE43"/>
-    <mergeCell ref="AF43:AJ43"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="V40:Z40"/>
+    <mergeCell ref="AA40:AE40"/>
+    <mergeCell ref="AF40:AJ40"/>
+    <mergeCell ref="AK40:AO40"/>
+    <mergeCell ref="AP40:AT40"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="V39:Z39"/>
+    <mergeCell ref="AA39:AE39"/>
+    <mergeCell ref="AF39:AJ39"/>
+    <mergeCell ref="AK39:AO39"/>
+    <mergeCell ref="AA42:AE42"/>
     <mergeCell ref="V18:Z18"/>
     <mergeCell ref="AA18:AE18"/>
     <mergeCell ref="AF18:AJ18"/>
@@ -14325,6 +15612,11 @@
     <mergeCell ref="AF12:AJ12"/>
     <mergeCell ref="AK12:AO12"/>
     <mergeCell ref="AP12:AT12"/>
+    <mergeCell ref="AK16:AO16"/>
+    <mergeCell ref="AP16:AT16"/>
+    <mergeCell ref="AK13:AO13"/>
+    <mergeCell ref="AP13:AT13"/>
+    <mergeCell ref="AP14:AT14"/>
     <mergeCell ref="AF10:AJ10"/>
     <mergeCell ref="AK10:AO10"/>
     <mergeCell ref="AP10:AT10"/>
@@ -14334,14 +15626,8 @@
     <mergeCell ref="AF20:AJ20"/>
     <mergeCell ref="AK20:AO20"/>
     <mergeCell ref="AP20:AT20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="V21:Z21"/>
-    <mergeCell ref="AA21:AE21"/>
-    <mergeCell ref="AF21:AJ21"/>
-    <mergeCell ref="AK21:AO21"/>
-    <mergeCell ref="AP21:AT21"/>
-    <mergeCell ref="AP22:AT22"/>
+    <mergeCell ref="AF19:AJ19"/>
+    <mergeCell ref="AK19:AO19"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C45:E45"/>
@@ -14351,8 +15637,21 @@
     <mergeCell ref="Q22:U22"/>
     <mergeCell ref="V22:Z22"/>
     <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="AK22:AO22"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="AA43:AE43"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="V21:Z21"/>
+    <mergeCell ref="AA21:AE21"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="V41:Z41"/>
     <mergeCell ref="AP47:AT47"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C43:E43"/>
@@ -14365,6 +15664,12 @@
     <mergeCell ref="L42:P42"/>
     <mergeCell ref="Q42:U42"/>
     <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="AP43:AT43"/>
+    <mergeCell ref="AP44:AT44"/>
+    <mergeCell ref="AP42:AT42"/>
+    <mergeCell ref="AF43:AJ43"/>
+    <mergeCell ref="AF42:AJ42"/>
+    <mergeCell ref="AA41:AE41"/>
   </mergeCells>
   <conditionalFormatting sqref="G24:AT40 L41:AT47 G41:K52">
     <cfRule type="notContainsBlanks" dxfId="5" priority="6">
@@ -14416,6 +15721,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14703,7 +16017,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -14723,16 +16037,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14753,7 +16066,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -14763,12 +16076,4 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>